--- a/Code/Results/Cases/Case_5_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.862808235928554</v>
+        <v>3.21524176289455</v>
       </c>
       <c r="C2">
-        <v>0.3072402793093545</v>
+        <v>0.5675100714005623</v>
       </c>
       <c r="D2">
-        <v>0.2306926543244288</v>
+        <v>0.02964113697847637</v>
       </c>
       <c r="E2">
-        <v>0.03361161305562632</v>
+        <v>0.03387256643470637</v>
       </c>
       <c r="F2">
-        <v>6.627809298593093</v>
+        <v>1.584851903679819</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,36 +445,42 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1004147330504637</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4675803597059698</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.08101318535481994</v>
+        <v>0.1495268053456513</v>
       </c>
       <c r="M2">
-        <v>0.4398667695134719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5132506542047679</v>
+      </c>
+      <c r="N2">
+        <v>0.9316207352455805</v>
+      </c>
+      <c r="O2">
+        <v>1.242366154243939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.600977674471096</v>
+        <v>2.791604159617464</v>
       </c>
       <c r="C3">
-        <v>0.2619311447927544</v>
+        <v>0.4961132372779389</v>
       </c>
       <c r="D3">
-        <v>0.2054137275798524</v>
+        <v>0.03162497878830983</v>
       </c>
       <c r="E3">
-        <v>0.03077150631782288</v>
+        <v>0.03389992388320184</v>
       </c>
       <c r="F3">
-        <v>5.868821784026579</v>
+        <v>1.442338106916594</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,36 +492,42 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09064275126825549</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4003567508870702</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07045485402237972</v>
+        <v>0.1353692119527423</v>
       </c>
       <c r="M3">
-        <v>0.3793169737528714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4480327463862537</v>
+      </c>
+      <c r="N3">
+        <v>0.9846078341092763</v>
+      </c>
+      <c r="O3">
+        <v>1.140500301734718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.444627052227503</v>
+        <v>2.535042288440366</v>
       </c>
       <c r="C4">
-        <v>0.234879913927017</v>
+        <v>0.4526081557128805</v>
       </c>
       <c r="D4">
-        <v>0.1902107338028145</v>
+        <v>0.03288659361530311</v>
       </c>
       <c r="E4">
-        <v>0.02908108843479162</v>
+        <v>0.03392679860439296</v>
       </c>
       <c r="F4">
-        <v>5.413249770286228</v>
+        <v>1.358250202628113</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -521,36 +539,42 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08478147038695383</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3602160323218868</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06416258602465774</v>
+        <v>0.1268958736791106</v>
       </c>
       <c r="M4">
-        <v>0.3431845888746068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4086049727064562</v>
+      </c>
+      <c r="N4">
+        <v>1.018767486740693</v>
+      </c>
+      <c r="O4">
+        <v>1.080737013868116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.381872655559448</v>
+        <v>2.431269512338361</v>
       </c>
       <c r="C5">
-        <v>0.2240186967972164</v>
+        <v>0.434944738033181</v>
       </c>
       <c r="D5">
-        <v>0.1840815503681057</v>
+        <v>0.03341122774473426</v>
       </c>
       <c r="E5">
-        <v>0.02840421016891881</v>
+        <v>0.03394016583273451</v>
       </c>
       <c r="F5">
-        <v>5.229844105741279</v>
+        <v>1.324766149143301</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -562,36 +586,42 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08242280580516592</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.344103612749791</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0616403737436606</v>
+        <v>0.1234933595685987</v>
       </c>
       <c r="M5">
-        <v>0.3286886542452621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3926744504096433</v>
+      </c>
+      <c r="N5">
+        <v>1.033080174699379</v>
+      </c>
+      <c r="O5">
+        <v>1.057022263668216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.371506206203094</v>
+        <v>2.414081923513038</v>
       </c>
       <c r="C6">
-        <v>0.2222241671094309</v>
+        <v>0.4320151706965589</v>
       </c>
       <c r="D6">
-        <v>0.1830674198629509</v>
+        <v>0.03349896627879634</v>
       </c>
       <c r="E6">
-        <v>0.02829249889261298</v>
+        <v>0.03394252812648491</v>
       </c>
       <c r="F6">
-        <v>5.199514744874477</v>
+        <v>1.319251275259433</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -603,36 +633,42 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0820328166965929</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3414418776353827</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.06122393184453401</v>
+        <v>0.1229312888326035</v>
       </c>
       <c r="M6">
-        <v>0.3262944615251016</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3900369400786943</v>
+      </c>
+      <c r="N6">
+        <v>1.035480028247598</v>
+      </c>
+      <c r="O6">
+        <v>1.053121376024748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.443777025664104</v>
+        <v>2.533639767290424</v>
       </c>
       <c r="C7">
-        <v>0.2347328166978428</v>
+        <v>0.4523696997851232</v>
       </c>
       <c r="D7">
-        <v>0.190127822974091</v>
+        <v>0.03289362697080467</v>
       </c>
       <c r="E7">
-        <v>0.02907191312375446</v>
+        <v>0.03392696924610172</v>
       </c>
       <c r="F7">
-        <v>5.41076769252382</v>
+        <v>1.35779555389766</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -644,36 +680,42 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08474954602357698</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3599977915223675</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.06412840824815191</v>
+        <v>0.1268497879803405</v>
       </c>
       <c r="M7">
-        <v>0.342988210312285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.4083895982176173</v>
+      </c>
+      <c r="N7">
+        <v>1.01895894473061</v>
+      </c>
+      <c r="O7">
+        <v>1.080414676671978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.771517153283213</v>
+        <v>3.068361746188998</v>
       </c>
       <c r="C8">
-        <v>0.2914383853684797</v>
+        <v>0.542811767661874</v>
       </c>
       <c r="D8">
-        <v>0.2219015787734833</v>
+        <v>0.0303158583590295</v>
       </c>
       <c r="E8">
-        <v>0.03262033592517</v>
+        <v>0.03387983226364133</v>
       </c>
       <c r="F8">
-        <v>6.363697750182894</v>
+        <v>1.534956165794256</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -685,36 +727,42 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09701335782967035</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4441405602309914</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.07732930732440479</v>
+        <v>0.1445967395359986</v>
       </c>
       <c r="M8">
-        <v>0.4187502107993311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4906241023455351</v>
+      </c>
+      <c r="N8">
+        <v>0.9495431049024319</v>
+      </c>
+      <c r="O8">
+        <v>1.206627361593249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.457005664252279</v>
+        <v>4.15087823341787</v>
       </c>
       <c r="C9">
-        <v>0.4103460135517878</v>
+        <v>0.7237315509066491</v>
       </c>
       <c r="D9">
-        <v>0.2874489619567839</v>
+        <v>0.02562814431850224</v>
       </c>
       <c r="E9">
-        <v>0.04007699217231497</v>
+        <v>0.03387347899387727</v>
       </c>
       <c r="F9">
-        <v>8.335021117097881</v>
+        <v>1.913264416588021</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -726,36 +774,42 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1224219187653581</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6202246757989371</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1050369832458351</v>
+        <v>0.1813752024330526</v>
       </c>
       <c r="M9">
-        <v>0.5773991249682524</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.6576880411000161</v>
+      </c>
+      <c r="N9">
+        <v>0.8271195458533143</v>
+      </c>
+      <c r="O9">
+        <v>1.479205080747846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.999381884565821</v>
+        <v>4.975775865992773</v>
       </c>
       <c r="C10">
-        <v>0.5050507679249847</v>
+        <v>0.8602629800789714</v>
       </c>
       <c r="D10">
-        <v>0.3387353979124867</v>
+        <v>0.02244309775605124</v>
       </c>
       <c r="E10">
-        <v>0.04597902641082641</v>
+        <v>0.03393124777973</v>
       </c>
       <c r="F10">
-        <v>9.877848407149912</v>
+        <v>2.215898318088946</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -767,36 +821,42 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1423358890290203</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7597400413014981</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1270051171115867</v>
+        <v>0.2099642431341238</v>
       </c>
       <c r="M10">
-        <v>0.7030102245454444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.7853800114953415</v>
+      </c>
+      <c r="N10">
+        <v>0.7467627202917697</v>
+      </c>
+      <c r="O10">
+        <v>1.699382120550553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.258010022164967</v>
+        <v>5.359717110715962</v>
       </c>
       <c r="C11">
-        <v>0.5504631014626966</v>
+        <v>0.9235256705405277</v>
       </c>
       <c r="D11">
-        <v>0.363060135355056</v>
+        <v>0.02105984649311221</v>
       </c>
       <c r="E11">
-        <v>0.04878837947699921</v>
+        <v>0.03397379557112634</v>
       </c>
       <c r="F11">
-        <v>10.60891621323486</v>
+        <v>2.360419698679493</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -808,36 +868,42 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1517792046666635</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8263454436613884</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1374857336886279</v>
+        <v>0.2234019964959657</v>
       </c>
       <c r="M11">
-        <v>0.762915542796911</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.8449028203876807</v>
+      </c>
+      <c r="N11">
+        <v>0.7126028032891227</v>
+      </c>
+      <c r="O11">
+        <v>1.805044709548014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.358011517339889</v>
+        <v>5.506567939233605</v>
       </c>
       <c r="C12">
-        <v>0.568070529143796</v>
+        <v>0.9476824242294413</v>
       </c>
       <c r="D12">
-        <v>0.3724460930255304</v>
+        <v>0.02054644004031481</v>
       </c>
       <c r="E12">
-        <v>0.04987336941227838</v>
+        <v>0.03399252016830889</v>
       </c>
       <c r="F12">
-        <v>10.89083448579339</v>
+        <v>2.41627215006352</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -849,36 +915,42 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1554218768943407</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8521141355260511</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1415384469958383</v>
+        <v>0.2285612984030791</v>
       </c>
       <c r="M12">
-        <v>0.7860787989014213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.8676826227000021</v>
+      </c>
+      <c r="N12">
+        <v>0.7000419858138258</v>
+      </c>
+      <c r="O12">
+        <v>1.845959178428188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.336376236692786</v>
+        <v>5.474872396081423</v>
       </c>
       <c r="C13">
-        <v>0.5642588220210314</v>
+        <v>0.9424703175691604</v>
       </c>
       <c r="D13">
-        <v>0.3704163215971761</v>
+        <v>0.02065653177936699</v>
       </c>
       <c r="E13">
-        <v>0.04963869896501194</v>
+        <v>0.03398836644452485</v>
       </c>
       <c r="F13">
-        <v>10.82987681174274</v>
+        <v>2.404190863899316</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -890,36 +962,42 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1546341920154717</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8465383621091007</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1406616415123061</v>
+        <v>0.2274468589074843</v>
       </c>
       <c r="M13">
-        <v>0.7810674491590888</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.8627653440140648</v>
+      </c>
+      <c r="N13">
+        <v>0.7027299887049097</v>
+      </c>
+      <c r="O13">
+        <v>1.837105471373931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.266193565863318</v>
+        <v>5.371768046297404</v>
       </c>
       <c r="C14">
-        <v>0.5519029569878171</v>
+        <v>0.9255088281113899</v>
       </c>
       <c r="D14">
-        <v>0.3638286200843766</v>
+        <v>0.02101739373787836</v>
       </c>
       <c r="E14">
-        <v>0.04887719776711563</v>
+        <v>0.0339752819637047</v>
       </c>
       <c r="F14">
-        <v>10.63200243349752</v>
+        <v>2.364991297577745</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -931,36 +1009,42 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1520774801232108</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8284538835100363</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1378173822329387</v>
+        <v>0.2238249857464183</v>
       </c>
       <c r="M14">
-        <v>0.7648110926868128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.8467719166431067</v>
+      </c>
+      <c r="N14">
+        <v>0.7115617181460294</v>
+      </c>
+      <c r="O14">
+        <v>1.808391999474679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.223485142982213</v>
+        <v>5.308810555640548</v>
       </c>
       <c r="C15">
-        <v>0.5443906206247107</v>
+        <v>0.9151466446095924</v>
       </c>
       <c r="D15">
-        <v>0.3598172538166722</v>
+        <v>0.02123981771441574</v>
       </c>
       <c r="E15">
-        <v>0.04841361651534015</v>
+        <v>0.03396761647953328</v>
       </c>
       <c r="F15">
-        <v>10.51148873377252</v>
+        <v>2.341131427176279</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -972,36 +1056,42 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1505204794602264</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8174509427174783</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1360865762958348</v>
+        <v>0.2216159630567631</v>
       </c>
       <c r="M15">
-        <v>0.7549185639991691</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.837007770415255</v>
+      </c>
+      <c r="N15">
+        <v>0.7170211838954472</v>
+      </c>
+      <c r="O15">
+        <v>1.79092520320971</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.98274814252693</v>
+        <v>4.950876754031981</v>
       </c>
       <c r="C16">
-        <v>0.5021360051376575</v>
+        <v>0.8561546961028057</v>
       </c>
       <c r="D16">
-        <v>0.3371683133351553</v>
+        <v>0.02253489620056293</v>
       </c>
       <c r="E16">
-        <v>0.04579819877684344</v>
+        <v>0.03392881689210325</v>
       </c>
       <c r="F16">
-        <v>9.830730961300247</v>
+        <v>2.206602980416164</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1013,36 +1103,42 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1417274120535268</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7554581398934133</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1263311182500217</v>
+        <v>0.209095463798036</v>
       </c>
       <c r="M16">
-        <v>0.6991574834393575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7815217042854741</v>
+      </c>
+      <c r="N16">
+        <v>0.7490458599140837</v>
+      </c>
+      <c r="O16">
+        <v>1.692596748019866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.838343416505438</v>
+        <v>4.73366436317167</v>
       </c>
       <c r="C17">
-        <v>0.4768605545346247</v>
+        <v>0.8202838970443338</v>
       </c>
       <c r="D17">
-        <v>0.3235494608020701</v>
+        <v>0.02334683594596587</v>
       </c>
       <c r="E17">
-        <v>0.04422775173386029</v>
+        <v>0.03390936204310968</v>
       </c>
       <c r="F17">
-        <v>9.421170613259108</v>
+        <v>2.125923602488328</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1054,36 +1150,42 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1364391150720792</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7182940545087035</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1204803656413098</v>
+        <v>0.2015310770861589</v>
       </c>
       <c r="M17">
-        <v>0.66571099465191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7478729557032366</v>
+      </c>
+      <c r="N17">
+        <v>0.7693258606181956</v>
+      </c>
+      <c r="O17">
+        <v>1.633759802608466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.756381029336865</v>
+        <v>4.609533599259009</v>
       </c>
       <c r="C18">
-        <v>0.4625368780710062</v>
+        <v>0.7997582597428163</v>
       </c>
       <c r="D18">
-        <v>0.3158076491985753</v>
+        <v>0.0238199550830398</v>
       </c>
       <c r="E18">
-        <v>0.04333596584149646</v>
+        <v>0.03389968459661485</v>
       </c>
       <c r="F18">
-        <v>9.188292872986324</v>
+        <v>2.080154571734568</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1095,36 +1197,42 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1334328143978425</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6972071064019332</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1171600646570106</v>
+        <v>0.1972203823415697</v>
       </c>
       <c r="M18">
-        <v>0.6467280257753529</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7286519446143629</v>
+      </c>
+      <c r="N18">
+        <v>0.781213767566058</v>
+      </c>
+      <c r="O18">
+        <v>1.600428935242036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.728808346791197</v>
+        <v>4.567637125358601</v>
       </c>
       <c r="C19">
-        <v>0.4577218209386729</v>
+        <v>0.7928259017050436</v>
       </c>
       <c r="D19">
-        <v>0.3132012230329195</v>
+        <v>0.02398116806343698</v>
       </c>
       <c r="E19">
-        <v>0.04303590631237952</v>
+        <v>0.03389666013548842</v>
       </c>
       <c r="F19">
-        <v>9.109882316124327</v>
+        <v>2.064763127641527</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1136,36 +1244,42 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.132420693942862</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6901144120664995</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1160431952643783</v>
+        <v>0.1957675048609104</v>
       </c>
       <c r="M19">
-        <v>0.6403422055938037</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7221659025665446</v>
+      </c>
+      <c r="N19">
+        <v>0.7852763065003074</v>
+      </c>
+      <c r="O19">
+        <v>1.589228197964076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.853599817600355</v>
+        <v>4.756702327139465</v>
       </c>
       <c r="C20">
-        <v>0.4795285089213905</v>
+        <v>0.8240911661652319</v>
       </c>
       <c r="D20">
-        <v>0.3249895399120106</v>
+        <v>0.02325976442084077</v>
       </c>
       <c r="E20">
-        <v>0.04439371716401297</v>
+        <v>0.03391127467266841</v>
       </c>
       <c r="F20">
-        <v>9.464484690237981</v>
+        <v>2.134445313991293</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1177,36 +1291,42 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1369983243198654</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7222197048561227</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1210984488439877</v>
+        <v>0.2023321058482566</v>
       </c>
       <c r="M20">
-        <v>0.6692445435182961</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7514409420994639</v>
+      </c>
+      <c r="N20">
+        <v>0.767143691304689</v>
+      </c>
+      <c r="O20">
+        <v>1.639969489483121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.286748737162384</v>
+        <v>5.402010846789778</v>
       </c>
       <c r="C21">
-        <v>0.5555203499220056</v>
+        <v>0.9304850883624169</v>
       </c>
       <c r="D21">
-        <v>0.3657585647183623</v>
+        <v>0.02091110913925398</v>
       </c>
       <c r="E21">
-        <v>0.04910026644403231</v>
+        <v>0.03397905187895311</v>
       </c>
       <c r="F21">
-        <v>10.68997733364375</v>
+        <v>2.376473418919645</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1218,36 +1338,42 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1528265371054154</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8337500480536448</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1386504090804479</v>
+        <v>0.2248868256035621</v>
       </c>
       <c r="M21">
-        <v>0.76957227512424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8514627794070364</v>
+      </c>
+      <c r="N21">
+        <v>0.7089571921310309</v>
+      </c>
+      <c r="O21">
+        <v>1.816800401369079</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.582085769529158</v>
+        <v>5.832387575390669</v>
       </c>
       <c r="C22">
-        <v>0.6076261378704828</v>
+        <v>1.001207939454133</v>
       </c>
       <c r="D22">
-        <v>0.3934409525850384</v>
+        <v>0.01943731199788878</v>
       </c>
       <c r="E22">
-        <v>0.05230148352423925</v>
+        <v>0.03403873855489215</v>
       </c>
       <c r="F22">
-        <v>11.5210382693445</v>
+        <v>2.541289749778144</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1259,36 +1385,42 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1635668050190162</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9098860502157464</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1506192334162826</v>
+        <v>0.240044521057726</v>
       </c>
       <c r="M22">
-        <v>0.8379798916634016</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9182490999820843</v>
+      </c>
+      <c r="N22">
+        <v>0.6731304867114929</v>
+      </c>
+      <c r="O22">
+        <v>1.937690741323109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.423203140154783</v>
+        <v>5.601821304906935</v>
       </c>
       <c r="C23">
-        <v>0.5795639407940314</v>
+        <v>0.9633404844925622</v>
       </c>
       <c r="D23">
-        <v>0.3785593576431268</v>
+        <v>0.0202179480743192</v>
       </c>
       <c r="E23">
-        <v>0.05058024844537101</v>
+        <v>0.03400537168681339</v>
       </c>
       <c r="F23">
-        <v>11.0743959550465</v>
+        <v>2.452666083930751</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1300,36 +1432,42 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.157793989113955</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8689175685040595</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.144180439162291</v>
+        <v>0.2319133470926147</v>
       </c>
       <c r="M23">
-        <v>0.8011789770037012</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8824622796858606</v>
+      </c>
+      <c r="N23">
+        <v>0.6920393811894527</v>
+      </c>
+      <c r="O23">
+        <v>1.872642118114683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.846699129605724</v>
+        <v>4.746284550845246</v>
       </c>
       <c r="C24">
-        <v>0.4783216858753576</v>
+        <v>0.8223696003383054</v>
       </c>
       <c r="D24">
-        <v>0.3243382088305822</v>
+        <v>0.02329910982988004</v>
       </c>
       <c r="E24">
-        <v>0.04431864990241152</v>
+        <v>0.03391040529754408</v>
       </c>
       <c r="F24">
-        <v>9.444894411564519</v>
+        <v>2.130590744196809</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1341,36 +1479,42 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1367454007123321</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7204440556952392</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.120818879337385</v>
+        <v>0.2019698424800396</v>
       </c>
       <c r="M24">
-        <v>0.6676462661694273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.749827471374708</v>
+      </c>
+      <c r="N24">
+        <v>0.7681295400679957</v>
+      </c>
+      <c r="O24">
+        <v>1.637160555594008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.265790240198726</v>
+        <v>3.853533850076076</v>
       </c>
       <c r="C25">
-        <v>0.3771055250264794</v>
+        <v>0.6742674212867996</v>
       </c>
       <c r="D25">
-        <v>0.2692608633677764</v>
+        <v>0.02685365809230467</v>
       </c>
       <c r="E25">
-        <v>0.03799507444406025</v>
+        <v>0.0338650435224177</v>
       </c>
       <c r="F25">
-        <v>7.78772173877357</v>
+        <v>1.807046181011401</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1153632217128298</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5710842320513692</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.09729912638016813</v>
+        <v>0.1711787381108394</v>
       </c>
       <c r="M25">
-        <v>0.5331275264914765</v>
+        <v>0.6117344519815546</v>
+      </c>
+      <c r="N25">
+        <v>0.8586520843452803</v>
+      </c>
+      <c r="O25">
+        <v>1.402332325072962</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_29/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.21524176289455</v>
+        <v>0.811162616343438</v>
       </c>
       <c r="C2">
-        <v>0.5675100714005623</v>
+        <v>0.1478995411979156</v>
       </c>
       <c r="D2">
-        <v>0.02964113697847637</v>
+        <v>0.1281847269859924</v>
       </c>
       <c r="E2">
-        <v>0.03387256643470637</v>
+        <v>0.02906502333121352</v>
       </c>
       <c r="F2">
-        <v>1.584851903679819</v>
+        <v>2.782109812933285</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.081738015018374</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8904830929484717</v>
       </c>
       <c r="L2">
-        <v>0.1495268053456513</v>
+        <v>0.180954814249084</v>
       </c>
       <c r="M2">
-        <v>0.5132506542047679</v>
+        <v>0.1969270715524978</v>
       </c>
       <c r="N2">
-        <v>0.9316207352455805</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.242366154243939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.791604159617464</v>
+        <v>0.7065094095359541</v>
       </c>
       <c r="C3">
-        <v>0.4961132372779389</v>
+        <v>0.127871332846567</v>
       </c>
       <c r="D3">
-        <v>0.03162497878830983</v>
+        <v>0.1276343416430876</v>
       </c>
       <c r="E3">
-        <v>0.03389992388320184</v>
+        <v>0.02844908256292022</v>
       </c>
       <c r="F3">
-        <v>1.442338106916594</v>
+        <v>2.578191394646481</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.958288412277199</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7707005850060682</v>
       </c>
       <c r="L3">
-        <v>0.1353692119527423</v>
+        <v>0.164986803768798</v>
       </c>
       <c r="M3">
-        <v>0.4480327463862537</v>
+        <v>0.1738378330786219</v>
       </c>
       <c r="N3">
-        <v>0.9846078341092763</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.140500301734718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.535042288440366</v>
+        <v>0.6433719965678506</v>
       </c>
       <c r="C4">
-        <v>0.4526081557128805</v>
+        <v>0.1157203281676118</v>
       </c>
       <c r="D4">
-        <v>0.03288659361530311</v>
+        <v>0.1272915690106622</v>
       </c>
       <c r="E4">
-        <v>0.03392679860439296</v>
+        <v>0.028092676320572</v>
       </c>
       <c r="F4">
-        <v>1.358250202628113</v>
+        <v>2.455932305625268</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.884409237030454</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6983133946469309</v>
       </c>
       <c r="L4">
-        <v>0.1268958736791106</v>
+        <v>0.1554225574302635</v>
       </c>
       <c r="M4">
-        <v>0.4086049727064562</v>
+        <v>0.1599427683104082</v>
       </c>
       <c r="N4">
-        <v>1.018767486740693</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.080737013868116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.431269512338361</v>
+        <v>0.6178953241197291</v>
       </c>
       <c r="C5">
-        <v>0.434944738033181</v>
+        <v>0.11079920725021</v>
       </c>
       <c r="D5">
-        <v>0.03341122774473426</v>
+        <v>0.1271504792373435</v>
       </c>
       <c r="E5">
-        <v>0.03394016583273451</v>
+        <v>0.02795268893256431</v>
       </c>
       <c r="F5">
-        <v>1.324766149143301</v>
+        <v>2.406787493535447</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.854745460046772</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6690722435994019</v>
       </c>
       <c r="L5">
-        <v>0.1234933595685987</v>
+        <v>0.1515806555291661</v>
       </c>
       <c r="M5">
-        <v>0.3926744504096433</v>
+        <v>0.1543446808690447</v>
       </c>
       <c r="N5">
-        <v>1.033080174699379</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.057022263668216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.414081923513038</v>
+        <v>0.613679364145213</v>
       </c>
       <c r="C6">
-        <v>0.4320151706965589</v>
+        <v>0.1099837261693608</v>
       </c>
       <c r="D6">
-        <v>0.03349896627879634</v>
+        <v>0.1271269610124861</v>
       </c>
       <c r="E6">
-        <v>0.03394252812648491</v>
+        <v>0.02792975494417238</v>
       </c>
       <c r="F6">
-        <v>1.319251275259433</v>
+        <v>2.39866610675935</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.849845422765938</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6642313476798591</v>
       </c>
       <c r="L6">
-        <v>0.1229312888326035</v>
+        <v>0.1509459352231417</v>
       </c>
       <c r="M6">
-        <v>0.3900369400786943</v>
+        <v>0.1534188197184356</v>
       </c>
       <c r="N6">
-        <v>1.035480028247598</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.053121376024748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.533639767290424</v>
+        <v>0.6430274248188823</v>
       </c>
       <c r="C7">
-        <v>0.4523696997851232</v>
+        <v>0.1156538446637825</v>
       </c>
       <c r="D7">
-        <v>0.03289362697080467</v>
+        <v>0.127289672167219</v>
       </c>
       <c r="E7">
-        <v>0.03392696924610172</v>
+        <v>0.02809076742886329</v>
       </c>
       <c r="F7">
-        <v>1.35779555389766</v>
+        <v>2.455266863382917</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.884007439955454</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6979180405262468</v>
       </c>
       <c r="L7">
-        <v>0.1268497879803405</v>
+        <v>0.1553705251451021</v>
       </c>
       <c r="M7">
-        <v>0.4083895982176173</v>
+        <v>0.1598670187370885</v>
       </c>
       <c r="N7">
-        <v>1.01895894473061</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.080414676671978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.068361746188998</v>
+        <v>0.7748273922386204</v>
       </c>
       <c r="C8">
-        <v>0.542811767661874</v>
+        <v>0.140959487303661</v>
       </c>
       <c r="D8">
-        <v>0.0303158583590295</v>
+        <v>0.1279958382910245</v>
       </c>
       <c r="E8">
-        <v>0.03387983226364133</v>
+        <v>0.02884798421389956</v>
       </c>
       <c r="F8">
-        <v>1.534956165794256</v>
+        <v>2.711146738087251</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.038749234128687</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8489198614500708</v>
       </c>
       <c r="L8">
-        <v>0.1445967395359986</v>
+        <v>0.1753962065494079</v>
       </c>
       <c r="M8">
-        <v>0.4906241023455351</v>
+        <v>0.1889032851876671</v>
       </c>
       <c r="N8">
-        <v>0.9495431049024319</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.206627361593249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.15087823341787</v>
+        <v>1.043620411784531</v>
       </c>
       <c r="C9">
-        <v>0.7237315509066491</v>
+        <v>0.1920569037529418</v>
       </c>
       <c r="D9">
-        <v>0.02562814431850224</v>
+        <v>0.1293515756950576</v>
       </c>
       <c r="E9">
-        <v>0.03387347899387727</v>
+        <v>0.03051687875207243</v>
       </c>
       <c r="F9">
-        <v>1.913264416588021</v>
+        <v>3.239480837221464</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.359393216692368</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.155934436377606</v>
       </c>
       <c r="L9">
-        <v>0.1813752024330526</v>
+        <v>0.2168076477481975</v>
       </c>
       <c r="M9">
-        <v>0.6576880411000161</v>
+        <v>0.2484047972235395</v>
       </c>
       <c r="N9">
-        <v>0.8271195458533143</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.479205080747846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.975775865992773</v>
+        <v>1.249620517162725</v>
       </c>
       <c r="C10">
-        <v>0.8602629800789714</v>
+        <v>0.2309757862671944</v>
       </c>
       <c r="D10">
-        <v>0.02244309775605124</v>
+        <v>0.1303439941725379</v>
       </c>
       <c r="E10">
-        <v>0.03393124777973</v>
+        <v>0.03187221753192482</v>
       </c>
       <c r="F10">
-        <v>2.215898318088946</v>
+        <v>3.648671953760015</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.608454312146876</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.39074967240154</v>
       </c>
       <c r="L10">
-        <v>0.2099642431341238</v>
+        <v>0.2488976937114273</v>
       </c>
       <c r="M10">
-        <v>0.7853800114953415</v>
+        <v>0.2941804811015842</v>
       </c>
       <c r="N10">
-        <v>0.7467627202917697</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.699382120550553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.359717110715962</v>
+        <v>1.345738149209012</v>
       </c>
       <c r="C11">
-        <v>0.9235256705405277</v>
+        <v>0.249100649025138</v>
       </c>
       <c r="D11">
-        <v>0.02105984649311221</v>
+        <v>0.1307981581126967</v>
       </c>
       <c r="E11">
-        <v>0.03397379557112634</v>
+        <v>0.03252107419375072</v>
       </c>
       <c r="F11">
-        <v>2.360419698679493</v>
+        <v>3.840589805070522</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.725431277793177</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.500233269939628</v>
       </c>
       <c r="L11">
-        <v>0.2234019964959657</v>
+        <v>0.2639471392612052</v>
       </c>
       <c r="M11">
-        <v>0.8449028203876807</v>
+        <v>0.315576419069771</v>
       </c>
       <c r="N11">
-        <v>0.7126028032891227</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.805044709548014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.506567939233605</v>
+        <v>1.382532952720283</v>
       </c>
       <c r="C12">
-        <v>0.9476824242294413</v>
+        <v>0.2560358248685475</v>
       </c>
       <c r="D12">
-        <v>0.02054644004031481</v>
+        <v>0.1309708510826226</v>
       </c>
       <c r="E12">
-        <v>0.03399252016830889</v>
+        <v>0.03277181506882343</v>
       </c>
       <c r="F12">
-        <v>2.41627215006352</v>
+        <v>3.914205838194192</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.770325272986057</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.542135710176268</v>
       </c>
       <c r="L12">
-        <v>0.2285612984030791</v>
+        <v>0.2697191655463911</v>
       </c>
       <c r="M12">
-        <v>0.8676826227000021</v>
+        <v>0.3237723223340296</v>
       </c>
       <c r="N12">
-        <v>0.7000419858138258</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.845959178428188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.474872396081423</v>
+        <v>1.374589999965963</v>
       </c>
       <c r="C13">
-        <v>0.9424703175691604</v>
+        <v>0.2545388302554699</v>
       </c>
       <c r="D13">
-        <v>0.02065653177936699</v>
+        <v>0.1309336214566628</v>
       </c>
       <c r="E13">
-        <v>0.03398836644452485</v>
+        <v>0.03271758310201101</v>
       </c>
       <c r="F13">
-        <v>2.404190863899316</v>
+        <v>3.898307577824113</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.760628813342009</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.533090522857378</v>
       </c>
       <c r="L13">
-        <v>0.2274468589074843</v>
+        <v>0.2684726643718278</v>
       </c>
       <c r="M13">
-        <v>0.8627653440140648</v>
+        <v>0.3220028246100028</v>
       </c>
       <c r="N13">
-        <v>0.7027299887049097</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.837105471373931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.371768046297404</v>
+        <v>1.348757009025888</v>
       </c>
       <c r="C14">
-        <v>0.9255088281113899</v>
+        <v>0.2496697046901772</v>
       </c>
       <c r="D14">
-        <v>0.02101739373787836</v>
+        <v>0.130812349455816</v>
       </c>
       <c r="E14">
-        <v>0.0339752819637047</v>
+        <v>0.03254159956951952</v>
       </c>
       <c r="F14">
-        <v>2.364991297577745</v>
+        <v>3.846626709206106</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.729112344244228</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.503671355221428</v>
       </c>
       <c r="L14">
-        <v>0.2238249857464183</v>
+        <v>0.2644204917623938</v>
       </c>
       <c r="M14">
-        <v>0.8467719166431067</v>
+        <v>0.3162487528354418</v>
       </c>
       <c r="N14">
-        <v>0.7115617181460294</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.808391999474679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.308810555640548</v>
+        <v>1.332986881735764</v>
       </c>
       <c r="C15">
-        <v>0.9151466446095924</v>
+        <v>0.2466969145106646</v>
       </c>
       <c r="D15">
-        <v>0.02123981771441574</v>
+        <v>0.1307381695601109</v>
       </c>
       <c r="E15">
-        <v>0.03396761647953328</v>
+        <v>0.03243447217818307</v>
       </c>
       <c r="F15">
-        <v>2.341131427176279</v>
+        <v>3.815096694267169</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.709887543833062</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.485710902292453</v>
       </c>
       <c r="L15">
-        <v>0.2216159630567631</v>
+        <v>0.261948200179404</v>
       </c>
       <c r="M15">
-        <v>0.837007770415255</v>
+        <v>0.3127367830867485</v>
       </c>
       <c r="N15">
-        <v>0.7170211838954472</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.79092520320971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.950876754031981</v>
+        <v>1.243391680300505</v>
       </c>
       <c r="C16">
-        <v>0.8561546961028057</v>
+        <v>0.2298006758671249</v>
       </c>
       <c r="D16">
-        <v>0.02253489620056293</v>
+        <v>0.1303143947135403</v>
       </c>
       <c r="E16">
-        <v>0.03392881689210325</v>
+        <v>0.03183049553991779</v>
       </c>
       <c r="F16">
-        <v>2.206602980416164</v>
+        <v>3.636255063828173</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.600889296321867</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.383653285892905</v>
       </c>
       <c r="L16">
-        <v>0.209095463798036</v>
+        <v>0.2479239449166073</v>
       </c>
       <c r="M16">
-        <v>0.7815217042854741</v>
+        <v>0.2927946730284248</v>
       </c>
       <c r="N16">
-        <v>0.7490458599140837</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.692596748019866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.73366436317167</v>
+        <v>1.189079089542673</v>
       </c>
       <c r="C17">
-        <v>0.8202838970443338</v>
+        <v>0.2195506735785955</v>
       </c>
       <c r="D17">
-        <v>0.02334683594596587</v>
+        <v>0.1300553346326971</v>
       </c>
       <c r="E17">
-        <v>0.03390936204310968</v>
+        <v>0.03146851344300217</v>
       </c>
       <c r="F17">
-        <v>2.125923602488328</v>
+        <v>3.528095700043394</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.535010956468639</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.321767638996221</v>
       </c>
       <c r="L17">
-        <v>0.2015310770861589</v>
+        <v>0.2394417411863969</v>
       </c>
       <c r="M17">
-        <v>0.7478729557032366</v>
+        <v>0.280715188616611</v>
       </c>
       <c r="N17">
-        <v>0.7693258606181956</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.633759802608466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.609533599259009</v>
+        <v>1.158063143321073</v>
       </c>
       <c r="C18">
-        <v>0.7997582597428163</v>
+        <v>0.2136939786715857</v>
       </c>
       <c r="D18">
-        <v>0.0238199550830398</v>
+        <v>0.1299065638973644</v>
       </c>
       <c r="E18">
-        <v>0.03389968459661485</v>
+        <v>0.03126332636072959</v>
       </c>
       <c r="F18">
-        <v>2.080154571734568</v>
+        <v>3.466421591909381</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.497461160094062</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.286419531829239</v>
       </c>
       <c r="L18">
-        <v>0.1972203823415697</v>
+        <v>0.2346049637516927</v>
       </c>
       <c r="M18">
-        <v>0.7286519446143629</v>
+        <v>0.2738205106241125</v>
       </c>
       <c r="N18">
-        <v>0.781213767566058</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.600428935242036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.567637125358601</v>
+        <v>1.147598546860081</v>
       </c>
       <c r="C19">
-        <v>0.7928259017050436</v>
+        <v>0.2117173503950482</v>
       </c>
       <c r="D19">
-        <v>0.02398116806343698</v>
+        <v>0.1298562235690852</v>
       </c>
       <c r="E19">
-        <v>0.03389666013548842</v>
+        <v>0.03119436026637423</v>
       </c>
       <c r="F19">
-        <v>2.064763127641527</v>
+        <v>3.445628722658824</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.48480415357939</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.274491941327767</v>
       </c>
       <c r="L19">
-        <v>0.1957675048609104</v>
+        <v>0.2329742845156915</v>
       </c>
       <c r="M19">
-        <v>0.7221659025665446</v>
+        <v>0.2714948858099007</v>
       </c>
       <c r="N19">
-        <v>0.7852763065003074</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.589228197964076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.756702327139465</v>
+        <v>1.194837302694225</v>
       </c>
       <c r="C20">
-        <v>0.8240911661652319</v>
+        <v>0.2206377071607051</v>
       </c>
       <c r="D20">
-        <v>0.02325976442084077</v>
+        <v>0.13008288560248</v>
       </c>
       <c r="E20">
-        <v>0.03391127467266841</v>
+        <v>0.03150673228514655</v>
       </c>
       <c r="F20">
-        <v>2.134445313991293</v>
+        <v>3.539553179613733</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.541987981369076</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.328329505037402</v>
       </c>
       <c r="L20">
-        <v>0.2023321058482566</v>
+        <v>0.2403402866073918</v>
       </c>
       <c r="M20">
-        <v>0.7514409420994639</v>
+        <v>0.281995493439041</v>
       </c>
       <c r="N20">
-        <v>0.767143691304689</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.639969489483121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.402010846789778</v>
+        <v>1.356333572885006</v>
       </c>
       <c r="C21">
-        <v>0.9304850883624169</v>
+        <v>0.2510978437153994</v>
       </c>
       <c r="D21">
-        <v>0.02091110913925398</v>
+        <v>0.1308479479558429</v>
       </c>
       <c r="E21">
-        <v>0.03397905187895311</v>
+        <v>0.03259315032328836</v>
       </c>
       <c r="F21">
-        <v>2.376473418919645</v>
+        <v>3.861780159183354</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.738352701942262</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.512299933006517</v>
       </c>
       <c r="L21">
-        <v>0.2248868256035621</v>
+        <v>0.265608658860188</v>
       </c>
       <c r="M21">
-        <v>0.8514627794070364</v>
+        <v>0.3179362224811015</v>
       </c>
       <c r="N21">
-        <v>0.7089571921310309</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.816800401369079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.832387575390669</v>
+        <v>1.464223284156759</v>
       </c>
       <c r="C22">
-        <v>1.001207939454133</v>
+        <v>0.2714292812717218</v>
       </c>
       <c r="D22">
-        <v>0.01943731199788878</v>
+        <v>0.1313522790082118</v>
       </c>
       <c r="E22">
-        <v>0.03403873855489215</v>
+        <v>0.03333273222723854</v>
       </c>
       <c r="F22">
-        <v>2.541289749778144</v>
+        <v>4.077918304673119</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.870207323738768</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.635152344775861</v>
       </c>
       <c r="L22">
-        <v>0.240044521057726</v>
+        <v>0.2825536808059468</v>
       </c>
       <c r="M22">
-        <v>0.9182490999820843</v>
+        <v>0.3419780700748518</v>
       </c>
       <c r="N22">
-        <v>0.6731304867114929</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.937690741323109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.601821304906935</v>
+        <v>1.406407866314936</v>
       </c>
       <c r="C23">
-        <v>0.9633404844925622</v>
+        <v>0.2605351705418286</v>
       </c>
       <c r="D23">
-        <v>0.0202179480743192</v>
+        <v>0.1310825975177323</v>
       </c>
       <c r="E23">
-        <v>0.03400537168681339</v>
+        <v>0.03293516156053578</v>
       </c>
       <c r="F23">
-        <v>2.452666083930751</v>
+        <v>3.962014423934704</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.799487519615539</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.569322620951652</v>
       </c>
       <c r="L23">
-        <v>0.2319133470926147</v>
+        <v>0.2734674610272805</v>
       </c>
       <c r="M23">
-        <v>0.8824622796858606</v>
+        <v>0.3290918332981505</v>
       </c>
       <c r="N23">
-        <v>0.6920393811894527</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.872642118114683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.746284550845246</v>
+        <v>1.192233367060311</v>
       </c>
       <c r="C24">
-        <v>0.8223696003383054</v>
+        <v>0.2201461474559352</v>
       </c>
       <c r="D24">
-        <v>0.02329910982988004</v>
+        <v>0.1300704293147028</v>
       </c>
       <c r="E24">
-        <v>0.03391040529754408</v>
+        <v>0.03148944447637092</v>
       </c>
       <c r="F24">
-        <v>2.130590744196809</v>
+        <v>3.534371678534285</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.538832662635542</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.325362171051836</v>
       </c>
       <c r="L24">
-        <v>0.2019698424800396</v>
+        <v>0.2399339310054813</v>
       </c>
       <c r="M24">
-        <v>0.749827471374708</v>
+        <v>0.2814165128053645</v>
       </c>
       <c r="N24">
-        <v>0.7681295400679957</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.637160555594008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.853533850076076</v>
+        <v>0.9695819175700251</v>
       </c>
       <c r="C25">
-        <v>0.6742674212867996</v>
+        <v>0.1780293112109206</v>
       </c>
       <c r="D25">
-        <v>0.02685365809230467</v>
+        <v>0.1289865440913438</v>
       </c>
       <c r="E25">
-        <v>0.0338650435224177</v>
+        <v>0.03004403348374041</v>
       </c>
       <c r="F25">
-        <v>1.807046181011401</v>
+        <v>3.093236679297235</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.270515996018688</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.071457580829332</v>
       </c>
       <c r="L25">
-        <v>0.1711787381108394</v>
+        <v>0.2053403390309541</v>
       </c>
       <c r="M25">
-        <v>0.6117344519815546</v>
+        <v>0.2319851471320256</v>
       </c>
       <c r="N25">
-        <v>0.8586520843452803</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.402332325072962</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_29/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.811162616343438</v>
+        <v>0.7028063186220663</v>
       </c>
       <c r="C2">
-        <v>0.1478995411979156</v>
+        <v>0.04515230317635144</v>
       </c>
       <c r="D2">
-        <v>0.1281847269859924</v>
+        <v>0.1696043453175733</v>
       </c>
       <c r="E2">
-        <v>0.02906502333121352</v>
+        <v>0.06506417358149008</v>
       </c>
       <c r="F2">
-        <v>2.782109812933285</v>
+        <v>2.882730028648723</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.081738015018374</v>
+        <v>2.379696603339184</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8904830929484717</v>
+        <v>0.5539231946166581</v>
       </c>
       <c r="L2">
-        <v>0.180954814249084</v>
+        <v>0.2350104351937787</v>
       </c>
       <c r="M2">
-        <v>0.1969270715524978</v>
+        <v>0.2051997460670982</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7065094095359541</v>
+        <v>0.6830582863521499</v>
       </c>
       <c r="C3">
-        <v>0.127871332846567</v>
+        <v>0.03931581342145307</v>
       </c>
       <c r="D3">
-        <v>0.1276343416430876</v>
+        <v>0.1687664912108247</v>
       </c>
       <c r="E3">
-        <v>0.02844908256292022</v>
+        <v>0.06508989977272606</v>
       </c>
       <c r="F3">
-        <v>2.578191394646481</v>
+        <v>2.82979994787857</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,19 +489,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.958288412277199</v>
+        <v>2.346872366106751</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7707005850060682</v>
+        <v>0.5277790340459489</v>
       </c>
       <c r="L3">
-        <v>0.164986803768798</v>
+        <v>0.2320207262118927</v>
       </c>
       <c r="M3">
-        <v>0.1738378330786219</v>
+        <v>0.2009107545716837</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6433719965678506</v>
+        <v>0.6714924377058651</v>
       </c>
       <c r="C4">
-        <v>0.1157203281676118</v>
+        <v>0.03572706087400945</v>
       </c>
       <c r="D4">
-        <v>0.1272915690106622</v>
+        <v>0.1682345253070032</v>
       </c>
       <c r="E4">
-        <v>0.028092676320572</v>
+        <v>0.06511933386723268</v>
       </c>
       <c r="F4">
-        <v>2.455932305625268</v>
+        <v>2.798130741212773</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,19 +536,19 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.884409237030454</v>
+        <v>2.327252651222693</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6983133946469309</v>
+        <v>0.5121768394279229</v>
       </c>
       <c r="L4">
-        <v>0.1554225574302635</v>
+        <v>0.2302950901072478</v>
       </c>
       <c r="M4">
-        <v>0.1599427683104082</v>
+        <v>0.1984151525753539</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6178953241197291</v>
+        <v>0.6669200062992218</v>
       </c>
       <c r="C5">
-        <v>0.11079920725021</v>
+        <v>0.03426322170970764</v>
       </c>
       <c r="D5">
-        <v>0.1271504792373435</v>
+        <v>0.1680133123288385</v>
       </c>
       <c r="E5">
-        <v>0.02795268893256431</v>
+        <v>0.06513476492832382</v>
       </c>
       <c r="F5">
-        <v>2.406787493535447</v>
+        <v>2.785433527912559</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.854745460046772</v>
+        <v>2.319391528250961</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6690722435994019</v>
+        <v>0.5059319503065467</v>
       </c>
       <c r="L5">
-        <v>0.1515806555291661</v>
+        <v>0.2296195664454359</v>
       </c>
       <c r="M5">
-        <v>0.1543446808690447</v>
+        <v>0.1974328564106287</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.613679364145213</v>
+        <v>0.6661692598584636</v>
       </c>
       <c r="C6">
-        <v>0.1099837261693608</v>
+        <v>0.03402006512602895</v>
       </c>
       <c r="D6">
-        <v>0.1271269610124861</v>
+        <v>0.1679763115718345</v>
       </c>
       <c r="E6">
-        <v>0.02792975494417238</v>
+        <v>0.06513753500357122</v>
       </c>
       <c r="F6">
-        <v>2.39866610675935</v>
+        <v>2.783337728820001</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,19 +630,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.849845422765938</v>
+        <v>2.318094282575231</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6642313476798591</v>
+        <v>0.5049018204343128</v>
       </c>
       <c r="L6">
-        <v>0.1509459352231417</v>
+        <v>0.2295090688687083</v>
       </c>
       <c r="M6">
-        <v>0.1534188197184356</v>
+        <v>0.1972718421135191</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6430274248188823</v>
+        <v>0.6714302023543723</v>
       </c>
       <c r="C7">
-        <v>0.1156538446637825</v>
+        <v>0.03570732480650918</v>
       </c>
       <c r="D7">
-        <v>0.127289672167219</v>
+        <v>0.1682315599344086</v>
       </c>
       <c r="E7">
-        <v>0.02809076742886329</v>
+        <v>0.06511952805242416</v>
       </c>
       <c r="F7">
-        <v>2.455266863382917</v>
+        <v>2.797958659629998</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.884007439955454</v>
+        <v>2.327146090978445</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6979180405262468</v>
+        <v>0.5120921607721129</v>
       </c>
       <c r="L7">
-        <v>0.1553705251451021</v>
+        <v>0.2302858676374555</v>
       </c>
       <c r="M7">
-        <v>0.1598670187370885</v>
+        <v>0.1984017645367651</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7748273922386204</v>
+        <v>0.6958810868926264</v>
       </c>
       <c r="C8">
-        <v>0.140959487303661</v>
+        <v>0.04314088021612861</v>
       </c>
       <c r="D8">
-        <v>0.1279958382910245</v>
+        <v>0.1693190732269763</v>
       </c>
       <c r="E8">
-        <v>0.02884798421389956</v>
+        <v>0.06507021750924213</v>
       </c>
       <c r="F8">
-        <v>2.711146738087251</v>
+        <v>2.864307142575498</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.038749234128687</v>
+        <v>2.368267657414165</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8489198614500708</v>
+        <v>0.544815111347873</v>
       </c>
       <c r="L8">
-        <v>0.1753962065494079</v>
+        <v>0.2339567468040187</v>
       </c>
       <c r="M8">
-        <v>0.1889032851876671</v>
+        <v>0.2036922974813429</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.043620411784531</v>
+        <v>0.7482707620662268</v>
       </c>
       <c r="C9">
-        <v>0.1920569037529418</v>
+        <v>0.05768279880909688</v>
       </c>
       <c r="D9">
-        <v>0.1293515756950576</v>
+        <v>0.1713139159674846</v>
       </c>
       <c r="E9">
-        <v>0.03051687875207243</v>
+        <v>0.06508145503375573</v>
       </c>
       <c r="F9">
-        <v>3.239480837221464</v>
+        <v>3.001032914592429</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.359393216692368</v>
+        <v>2.45316824631027</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.155934436377606</v>
+        <v>0.6125691691670454</v>
       </c>
       <c r="L9">
-        <v>0.2168076477481975</v>
+        <v>0.2420287271489627</v>
       </c>
       <c r="M9">
-        <v>0.2484047972235395</v>
+        <v>0.2151610416290097</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.249620517162725</v>
+        <v>0.789478023103527</v>
       </c>
       <c r="C10">
-        <v>0.2309757862671944</v>
+        <v>0.06835368576730616</v>
       </c>
       <c r="D10">
-        <v>0.1303439941725379</v>
+        <v>0.1726973073643059</v>
       </c>
       <c r="E10">
-        <v>0.03187221753192482</v>
+        <v>0.06515518555737287</v>
       </c>
       <c r="F10">
-        <v>3.648671953760015</v>
+        <v>3.105573187011828</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.608454312146876</v>
+        <v>2.51817819709602</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.39074967240154</v>
+        <v>0.6645544679181512</v>
       </c>
       <c r="L10">
-        <v>0.2488976937114273</v>
+        <v>0.2484928594397644</v>
       </c>
       <c r="M10">
-        <v>0.2941804811015842</v>
+        <v>0.2242557369543832</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.345738149209012</v>
+        <v>0.8088165435353005</v>
       </c>
       <c r="C11">
-        <v>0.249100649025138</v>
+        <v>0.07320719269779374</v>
       </c>
       <c r="D11">
-        <v>0.1307981581126967</v>
+        <v>0.1733091725644584</v>
       </c>
       <c r="E11">
-        <v>0.03252107419375072</v>
+        <v>0.06520287962823268</v>
       </c>
       <c r="F11">
-        <v>3.840589805070522</v>
+        <v>3.15403135467659</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.725431277793177</v>
+        <v>2.548332896438595</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.500233269939628</v>
+        <v>0.6886880951509227</v>
       </c>
       <c r="L11">
-        <v>0.2639471392612052</v>
+        <v>0.2515497717200645</v>
       </c>
       <c r="M11">
-        <v>0.315576419069771</v>
+        <v>0.2285387979917175</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.382532952720283</v>
+        <v>0.816224913617873</v>
       </c>
       <c r="C12">
-        <v>0.2560358248685475</v>
+        <v>0.07504511545374726</v>
       </c>
       <c r="D12">
-        <v>0.1309708510826226</v>
+        <v>0.1735383896691332</v>
       </c>
       <c r="E12">
-        <v>0.03277181506882343</v>
+        <v>0.06522296934332417</v>
       </c>
       <c r="F12">
-        <v>3.914205838194192</v>
+        <v>3.172511697295761</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.770325272986057</v>
+        <v>2.559835791264305</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.542135710176268</v>
+        <v>0.6978969355421896</v>
       </c>
       <c r="L12">
-        <v>0.2697191655463911</v>
+        <v>0.2527240837257096</v>
       </c>
       <c r="M12">
-        <v>0.3237723223340296</v>
+        <v>0.2301816658636326</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.374589999965963</v>
+        <v>0.8146255950982777</v>
       </c>
       <c r="C13">
-        <v>0.2545388302554699</v>
+        <v>0.07464928391311787</v>
       </c>
       <c r="D13">
-        <v>0.1309336214566628</v>
+        <v>0.1734891336856776</v>
       </c>
       <c r="E13">
-        <v>0.03271758310201101</v>
+        <v>0.06521855252243292</v>
       </c>
       <c r="F13">
-        <v>3.898307577824113</v>
+        <v>3.168525821688974</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.760628813342009</v>
+        <v>2.557354696823211</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.533090522857378</v>
+        <v>0.6959105325818484</v>
       </c>
       <c r="L13">
-        <v>0.2684726643718278</v>
+        <v>0.2524704308129344</v>
       </c>
       <c r="M13">
-        <v>0.3220028246100028</v>
+        <v>0.2298269124990782</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.348757009025888</v>
+        <v>0.8094243251930493</v>
       </c>
       <c r="C14">
-        <v>0.2496697046901772</v>
+        <v>0.07335839897328356</v>
       </c>
       <c r="D14">
-        <v>0.130812349455816</v>
+        <v>0.1733280800094192</v>
       </c>
       <c r="E14">
-        <v>0.03254159956951952</v>
+        <v>0.06520449179268439</v>
       </c>
       <c r="F14">
-        <v>3.846626709206106</v>
+        <v>3.155549129347406</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.729112344244228</v>
+        <v>2.549277561631001</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.503671355221428</v>
+        <v>0.6894443088411037</v>
       </c>
       <c r="L14">
-        <v>0.2644204917623938</v>
+        <v>0.2516460478925779</v>
       </c>
       <c r="M14">
-        <v>0.3162487528354418</v>
+        <v>0.2286735375664435</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.332986881735764</v>
+        <v>0.8062495048719143</v>
       </c>
       <c r="C15">
-        <v>0.2466969145106646</v>
+        <v>0.07256769861932355</v>
       </c>
       <c r="D15">
-        <v>0.1307381695601109</v>
+        <v>0.1732291073886927</v>
       </c>
       <c r="E15">
-        <v>0.03243447217818307</v>
+        <v>0.06519614324090028</v>
       </c>
       <c r="F15">
-        <v>3.815096694267169</v>
+        <v>3.147617513809962</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.709887543833062</v>
+        <v>2.544341028717128</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.485710902292453</v>
+        <v>0.6854926763597291</v>
       </c>
       <c r="L15">
-        <v>0.261948200179404</v>
+        <v>0.2511432675980245</v>
       </c>
       <c r="M15">
-        <v>0.3127367830867485</v>
+        <v>0.2279697923104251</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.243391680300505</v>
+        <v>0.7882261405228235</v>
       </c>
       <c r="C16">
-        <v>0.2298006758671249</v>
+        <v>0.06803649234598197</v>
       </c>
       <c r="D16">
-        <v>0.1303143947135403</v>
+        <v>0.1726569716772772</v>
       </c>
       <c r="E16">
-        <v>0.03183049553991779</v>
+        <v>0.06515235290805066</v>
       </c>
       <c r="F16">
-        <v>3.636255063828173</v>
+        <v>3.1024245339392</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.600889296321867</v>
+        <v>2.516219246147884</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.383653285892905</v>
+        <v>0.6629870584598336</v>
       </c>
       <c r="L16">
-        <v>0.2479239449166073</v>
+        <v>0.2482954237890596</v>
       </c>
       <c r="M16">
-        <v>0.2927946730284248</v>
+        <v>0.223978762960364</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.189079089542673</v>
+        <v>0.7773213036314814</v>
       </c>
       <c r="C17">
-        <v>0.2195506735785955</v>
+        <v>0.06525663462836917</v>
       </c>
       <c r="D17">
-        <v>0.1300553346326971</v>
+        <v>0.1723015349195975</v>
       </c>
       <c r="E17">
-        <v>0.03146851344300217</v>
+        <v>0.06512910956836926</v>
       </c>
       <c r="F17">
-        <v>3.528095700043394</v>
+        <v>3.074931581649309</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.535010956468639</v>
+        <v>2.499116601288492</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.321767638996221</v>
+        <v>0.6493050024436968</v>
       </c>
       <c r="L17">
-        <v>0.2394417411863969</v>
+        <v>0.2465781592442085</v>
       </c>
       <c r="M17">
-        <v>0.280715188616611</v>
+        <v>0.2215677439115709</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.158063143321073</v>
+        <v>0.7711049577074505</v>
       </c>
       <c r="C18">
-        <v>0.2136939786715857</v>
+        <v>0.06365765834252102</v>
       </c>
       <c r="D18">
-        <v>0.1299065638973644</v>
+        <v>0.1720954534197894</v>
       </c>
       <c r="E18">
-        <v>0.03126332636072959</v>
+        <v>0.06511707319761229</v>
       </c>
       <c r="F18">
-        <v>3.466421591909381</v>
+        <v>3.059203256364697</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.497461160094062</v>
+        <v>2.489334309342482</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.286419531829239</v>
+        <v>0.6414811089141779</v>
       </c>
       <c r="L18">
-        <v>0.2346049637516927</v>
+        <v>0.245601385379203</v>
       </c>
       <c r="M18">
-        <v>0.2738205106241125</v>
+        <v>0.2201947167987583</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.147598546860081</v>
+        <v>0.769009798357672</v>
       </c>
       <c r="C19">
-        <v>0.2117173503950482</v>
+        <v>0.0631162561025036</v>
       </c>
       <c r="D19">
-        <v>0.1298562235690852</v>
+        <v>0.1720253946719197</v>
       </c>
       <c r="E19">
-        <v>0.03119436026637423</v>
+        <v>0.06511322695397936</v>
       </c>
       <c r="F19">
-        <v>3.445628722658824</v>
+        <v>3.053892479840783</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.48480415357939</v>
+        <v>2.486031576457606</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.274491941327767</v>
+        <v>0.6388399103020674</v>
       </c>
       <c r="L19">
-        <v>0.2329742845156915</v>
+        <v>0.245272547581834</v>
       </c>
       <c r="M19">
-        <v>0.2714948858099007</v>
+        <v>0.2197321912809187</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.194837302694225</v>
+        <v>0.7784763641892027</v>
       </c>
       <c r="C20">
-        <v>0.2206377071607051</v>
+        <v>0.06555256225841788</v>
       </c>
       <c r="D20">
-        <v>0.13008288560248</v>
+        <v>0.1723395416957914</v>
       </c>
       <c r="E20">
-        <v>0.03150673228514655</v>
+        <v>0.06513144598982912</v>
       </c>
       <c r="F20">
-        <v>3.539553179613733</v>
+        <v>3.077849463305739</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.541987981369076</v>
+        <v>2.500931543460169</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.328329505037402</v>
+        <v>0.6507567534104339</v>
       </c>
       <c r="L20">
-        <v>0.2403402866073918</v>
+        <v>0.2467598316074913</v>
       </c>
       <c r="M20">
-        <v>0.281995493439041</v>
+        <v>0.2218229803320355</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.356333572885006</v>
+        <v>0.8109497494041307</v>
       </c>
       <c r="C21">
-        <v>0.2510978437153994</v>
+        <v>0.07373756215200444</v>
       </c>
       <c r="D21">
-        <v>0.1308479479558429</v>
+        <v>0.1733754525602791</v>
       </c>
       <c r="E21">
-        <v>0.03259315032328836</v>
+        <v>0.06520856675289899</v>
       </c>
       <c r="F21">
-        <v>3.861780159183354</v>
+        <v>3.159357158189493</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.738352701942262</v>
+        <v>2.551647730313789</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.512299933006517</v>
+        <v>0.6913416953439366</v>
       </c>
       <c r="L21">
-        <v>0.265608658860188</v>
+        <v>0.2518877352437556</v>
       </c>
       <c r="M21">
-        <v>0.3179362224811015</v>
+        <v>0.2290117427810188</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.464223284156759</v>
+        <v>0.8326701364686642</v>
       </c>
       <c r="C22">
-        <v>0.2714292812717218</v>
+        <v>0.07908701380317495</v>
       </c>
       <c r="D22">
-        <v>0.1313522790082118</v>
+        <v>0.1740380193971731</v>
       </c>
       <c r="E22">
-        <v>0.03333273222723854</v>
+        <v>0.06527079335998387</v>
       </c>
       <c r="F22">
-        <v>4.077918304673119</v>
+        <v>3.213386810096097</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.870207323738768</v>
+        <v>2.58528327228008</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.635152344775861</v>
+        <v>0.7182741672342843</v>
       </c>
       <c r="L22">
-        <v>0.2825536808059468</v>
+        <v>0.2553366050600943</v>
       </c>
       <c r="M22">
-        <v>0.3419780700748518</v>
+        <v>0.2338322165361717</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.406407866314936</v>
+        <v>0.8210320656962153</v>
       </c>
       <c r="C23">
-        <v>0.2605351705418286</v>
+        <v>0.0762318666620132</v>
       </c>
       <c r="D23">
-        <v>0.1310825975177323</v>
+        <v>0.1736857096924282</v>
       </c>
       <c r="E23">
-        <v>0.03293516156053578</v>
+        <v>0.06523650203319242</v>
       </c>
       <c r="F23">
-        <v>3.962014423934704</v>
+        <v>3.184480479338276</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.799487519615539</v>
+        <v>2.567286431778186</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.569322620951652</v>
+        <v>0.7038624189371774</v>
       </c>
       <c r="L23">
-        <v>0.2734674610272805</v>
+        <v>0.2534869595049827</v>
       </c>
       <c r="M23">
-        <v>0.3290918332981505</v>
+        <v>0.2312482590411236</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.192233367060311</v>
+        <v>0.7779539962556044</v>
       </c>
       <c r="C24">
-        <v>0.2201461474559352</v>
+        <v>0.06541877587562794</v>
       </c>
       <c r="D24">
-        <v>0.1300704293147028</v>
+        <v>0.1723223642413174</v>
       </c>
       <c r="E24">
-        <v>0.03148944447637092</v>
+        <v>0.06513038556140494</v>
       </c>
       <c r="F24">
-        <v>3.534371678534285</v>
+        <v>3.076530046893993</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.538832662635542</v>
+        <v>2.500110851613954</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.325362171051836</v>
+        <v>0.6501002856703906</v>
       </c>
       <c r="L24">
-        <v>0.2399339310054813</v>
+        <v>0.246677664812708</v>
       </c>
       <c r="M24">
-        <v>0.2814165128053645</v>
+        <v>0.2217075471421524</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9695819175700251</v>
+        <v>0.7336215740663476</v>
       </c>
       <c r="C25">
-        <v>0.1780293112109206</v>
+        <v>0.05375173029669611</v>
       </c>
       <c r="D25">
-        <v>0.1289865440913438</v>
+        <v>0.1707888236844504</v>
       </c>
       <c r="E25">
-        <v>0.03004403348374041</v>
+        <v>0.06506689370159613</v>
       </c>
       <c r="F25">
-        <v>3.093236679297235</v>
+        <v>2.9633310307226</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.270515996018688</v>
+        <v>2.429740502188025</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.071457580829332</v>
+        <v>0.5938539922609891</v>
       </c>
       <c r="L25">
-        <v>0.2053403390309541</v>
+        <v>0.2397514180240705</v>
       </c>
       <c r="M25">
-        <v>0.2319851471320256</v>
+        <v>0.2119411528004917</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_29/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7028063186220663</v>
+        <v>0.8111626163434096</v>
       </c>
       <c r="C2">
-        <v>0.04515230317635144</v>
+        <v>0.147899541198143</v>
       </c>
       <c r="D2">
-        <v>0.1696043453175733</v>
+        <v>0.1281847269859853</v>
       </c>
       <c r="E2">
-        <v>0.06506417358149008</v>
+        <v>0.02906502333121352</v>
       </c>
       <c r="F2">
-        <v>2.882730028648723</v>
+        <v>2.782109812933257</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.379696603339184</v>
+        <v>2.08173801501836</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5539231946166581</v>
+        <v>0.890483092948557</v>
       </c>
       <c r="L2">
-        <v>0.2350104351937787</v>
+        <v>0.1809548142490911</v>
       </c>
       <c r="M2">
-        <v>0.2051997460670982</v>
+        <v>0.1969270715525013</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6830582863521499</v>
+        <v>0.7065094095357267</v>
       </c>
       <c r="C3">
-        <v>0.03931581342145307</v>
+        <v>0.1278713328462828</v>
       </c>
       <c r="D3">
-        <v>0.1687664912108247</v>
+        <v>0.1276343416431835</v>
       </c>
       <c r="E3">
-        <v>0.06508989977272606</v>
+        <v>0.0284490825629673</v>
       </c>
       <c r="F3">
-        <v>2.82979994787857</v>
+        <v>2.578191394646495</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,19 +489,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.346872366106751</v>
+        <v>1.958288412277199</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5277790340459489</v>
+        <v>0.7707005850062103</v>
       </c>
       <c r="L3">
-        <v>0.2320207262118927</v>
+        <v>0.1649868037689544</v>
       </c>
       <c r="M3">
-        <v>0.2009107545716837</v>
+        <v>0.1738378330786396</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6714924377058651</v>
+        <v>0.6433719965680496</v>
       </c>
       <c r="C4">
-        <v>0.03572706087400945</v>
+        <v>0.115720328167825</v>
       </c>
       <c r="D4">
-        <v>0.1682345253070032</v>
+        <v>0.1272915690108469</v>
       </c>
       <c r="E4">
-        <v>0.06511933386723268</v>
+        <v>0.02809267632057821</v>
       </c>
       <c r="F4">
-        <v>2.798130741212773</v>
+        <v>2.455932305625296</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,19 +536,19 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.327252651222693</v>
+        <v>1.884409237030482</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5121768394279229</v>
+        <v>0.6983133946469309</v>
       </c>
       <c r="L4">
-        <v>0.2302950901072478</v>
+        <v>0.1554225574303416</v>
       </c>
       <c r="M4">
-        <v>0.1984151525753539</v>
+        <v>0.1599427683104011</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6669200062992218</v>
+        <v>0.6178953241198997</v>
       </c>
       <c r="C5">
-        <v>0.03426322170970764</v>
+        <v>0.1107992072504373</v>
       </c>
       <c r="D5">
-        <v>0.1680133123288385</v>
+        <v>0.1271504792374074</v>
       </c>
       <c r="E5">
-        <v>0.06513476492832382</v>
+        <v>0.02795268893254832</v>
       </c>
       <c r="F5">
-        <v>2.785433527912559</v>
+        <v>2.406787493535433</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.319391528250961</v>
+        <v>1.854745460046786</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5059319503065467</v>
+        <v>0.6690722435993877</v>
       </c>
       <c r="L5">
-        <v>0.2296195664454359</v>
+        <v>0.1515806555291519</v>
       </c>
       <c r="M5">
-        <v>0.1974328564106287</v>
+        <v>0.1543446808690554</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6661692598584636</v>
+        <v>0.6136793641450993</v>
       </c>
       <c r="C6">
-        <v>0.03402006512602895</v>
+        <v>0.1099837261693608</v>
       </c>
       <c r="D6">
-        <v>0.1679763115718345</v>
+        <v>0.1271269610124826</v>
       </c>
       <c r="E6">
-        <v>0.06513753500357122</v>
+        <v>0.02792975494421945</v>
       </c>
       <c r="F6">
-        <v>2.783337728820001</v>
+        <v>2.398666106759322</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,19 +630,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.318094282575231</v>
+        <v>1.849845422765938</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5049018204343128</v>
+        <v>0.664231347679916</v>
       </c>
       <c r="L6">
-        <v>0.2295090688687083</v>
+        <v>0.1509459352231346</v>
       </c>
       <c r="M6">
-        <v>0.1972718421135191</v>
+        <v>0.1534188197184427</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6714302023543723</v>
+        <v>0.643027424818996</v>
       </c>
       <c r="C7">
-        <v>0.03570732480650918</v>
+        <v>0.1156538446637825</v>
       </c>
       <c r="D7">
-        <v>0.1682315599344086</v>
+        <v>0.1272896721672083</v>
       </c>
       <c r="E7">
-        <v>0.06511952805242416</v>
+        <v>0.02809076742890326</v>
       </c>
       <c r="F7">
-        <v>2.797958659629998</v>
+        <v>2.455266863382917</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.327146090978445</v>
+        <v>1.88400743995544</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5120921607721129</v>
+        <v>0.6979180405262753</v>
       </c>
       <c r="L7">
-        <v>0.2302858676374555</v>
+        <v>0.1553705251451305</v>
       </c>
       <c r="M7">
-        <v>0.1984017645367651</v>
+        <v>0.1598670187370956</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6958810868926264</v>
+        <v>0.7748273922384215</v>
       </c>
       <c r="C8">
-        <v>0.04314088021612861</v>
+        <v>0.1409594873038884</v>
       </c>
       <c r="D8">
-        <v>0.1693190732269763</v>
+        <v>0.1279958382910031</v>
       </c>
       <c r="E8">
-        <v>0.06507021750924213</v>
+        <v>0.02884798421386137</v>
       </c>
       <c r="F8">
-        <v>2.864307142575498</v>
+        <v>2.711146738087237</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.368267657414165</v>
+        <v>2.038749234128687</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.544815111347873</v>
+        <v>0.8489198614500992</v>
       </c>
       <c r="L8">
-        <v>0.2339567468040187</v>
+        <v>0.1753962065495358</v>
       </c>
       <c r="M8">
-        <v>0.2036922974813429</v>
+        <v>0.1889032851876813</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7482707620662268</v>
+        <v>1.043620411784417</v>
       </c>
       <c r="C9">
-        <v>0.05768279880909688</v>
+        <v>0.1920569037521886</v>
       </c>
       <c r="D9">
-        <v>0.1713139159674846</v>
+        <v>0.1293515756955372</v>
       </c>
       <c r="E9">
-        <v>0.06508145503375573</v>
+        <v>0.03051687875205999</v>
       </c>
       <c r="F9">
-        <v>3.001032914592429</v>
+        <v>3.239480837221436</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.45316824631027</v>
+        <v>2.359393216692368</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6125691691670454</v>
+        <v>1.155934436377635</v>
       </c>
       <c r="L9">
-        <v>0.2420287271489627</v>
+        <v>0.2168076477482117</v>
       </c>
       <c r="M9">
-        <v>0.2151610416290097</v>
+        <v>0.2484047972235608</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.789478023103527</v>
+        <v>1.249620517162725</v>
       </c>
       <c r="C10">
-        <v>0.06835368576730616</v>
+        <v>0.2309757862671944</v>
       </c>
       <c r="D10">
-        <v>0.1726973073643059</v>
+        <v>0.1303439941723887</v>
       </c>
       <c r="E10">
-        <v>0.06515518555737287</v>
+        <v>0.03187221753192304</v>
       </c>
       <c r="F10">
-        <v>3.105573187011828</v>
+        <v>3.648671953760044</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.51817819709602</v>
+        <v>2.608454312146918</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6645544679181512</v>
+        <v>1.390749672401455</v>
       </c>
       <c r="L10">
-        <v>0.2484928594397644</v>
+        <v>0.2488976937114273</v>
       </c>
       <c r="M10">
-        <v>0.2242557369543832</v>
+        <v>0.2941804811015842</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8088165435353005</v>
+        <v>1.345738149208984</v>
       </c>
       <c r="C11">
-        <v>0.07320719269779374</v>
+        <v>0.249100649024939</v>
       </c>
       <c r="D11">
-        <v>0.1733091725644584</v>
+        <v>0.1307981581127322</v>
       </c>
       <c r="E11">
-        <v>0.06520287962823268</v>
+        <v>0.03252107419368855</v>
       </c>
       <c r="F11">
-        <v>3.15403135467659</v>
+        <v>3.840589805070522</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.548332896438595</v>
+        <v>2.725431277793149</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6886880951509227</v>
+        <v>1.500233269939741</v>
       </c>
       <c r="L11">
-        <v>0.2515497717200645</v>
+        <v>0.263947139261191</v>
       </c>
       <c r="M11">
-        <v>0.2285387979917175</v>
+        <v>0.315576419069771</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.816224913617873</v>
+        <v>1.382532952720652</v>
       </c>
       <c r="C12">
-        <v>0.07504511545374726</v>
+        <v>0.2560358248685191</v>
       </c>
       <c r="D12">
-        <v>0.1735383896691332</v>
+        <v>0.1309708510826084</v>
       </c>
       <c r="E12">
-        <v>0.06522296934332417</v>
+        <v>0.0327718150687577</v>
       </c>
       <c r="F12">
-        <v>3.172511697295761</v>
+        <v>3.914205838194249</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.559835791264305</v>
+        <v>2.770325272986071</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6978969355421896</v>
+        <v>1.542135710176268</v>
       </c>
       <c r="L12">
-        <v>0.2527240837257096</v>
+        <v>0.2697191655463911</v>
       </c>
       <c r="M12">
-        <v>0.2301816658636326</v>
+        <v>0.3237723223340225</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8146255950982777</v>
+        <v>1.374589999966076</v>
       </c>
       <c r="C13">
-        <v>0.07464928391311787</v>
+        <v>0.2545388302554699</v>
       </c>
       <c r="D13">
-        <v>0.1734891336856776</v>
+        <v>0.130933621456677</v>
       </c>
       <c r="E13">
-        <v>0.06521855252243292</v>
+        <v>0.03271758310197725</v>
       </c>
       <c r="F13">
-        <v>3.168525821688974</v>
+        <v>3.898307577824056</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.557354696823211</v>
+        <v>2.760628813342009</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6959105325818484</v>
+        <v>1.533090522857407</v>
       </c>
       <c r="L13">
-        <v>0.2524704308129344</v>
+        <v>0.2684726643716857</v>
       </c>
       <c r="M13">
-        <v>0.2298269124990782</v>
+        <v>0.3220028246100028</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8094243251930493</v>
+        <v>1.34875700902586</v>
       </c>
       <c r="C14">
-        <v>0.07335839897328356</v>
+        <v>0.2496697046901346</v>
       </c>
       <c r="D14">
-        <v>0.1733280800094192</v>
+        <v>0.1308123494555531</v>
       </c>
       <c r="E14">
-        <v>0.06520449179268439</v>
+        <v>0.03254159956950176</v>
       </c>
       <c r="F14">
-        <v>3.155549129347406</v>
+        <v>3.846626709206134</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.549277561631001</v>
+        <v>2.729112344244243</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6894443088411037</v>
+        <v>1.503671355221371</v>
       </c>
       <c r="L14">
-        <v>0.2516460478925779</v>
+        <v>0.2644204917624933</v>
       </c>
       <c r="M14">
-        <v>0.2286735375664435</v>
+        <v>0.3162487528354418</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8062495048719143</v>
+        <v>1.332986881735991</v>
       </c>
       <c r="C15">
-        <v>0.07256769861932355</v>
+        <v>0.2466969145109061</v>
       </c>
       <c r="D15">
-        <v>0.1732291073886927</v>
+        <v>0.1307381695600327</v>
       </c>
       <c r="E15">
-        <v>0.06519614324090028</v>
+        <v>0.03243447217813689</v>
       </c>
       <c r="F15">
-        <v>3.147617513809962</v>
+        <v>3.815096694267112</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.544341028717128</v>
+        <v>2.709887543833062</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6854926763597291</v>
+        <v>1.485710902292567</v>
       </c>
       <c r="L15">
-        <v>0.2511432675980245</v>
+        <v>0.2619482001794324</v>
       </c>
       <c r="M15">
-        <v>0.2279697923104251</v>
+        <v>0.3127367830867556</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7882261405228235</v>
+        <v>1.243391680300476</v>
       </c>
       <c r="C16">
-        <v>0.06803649234598197</v>
+        <v>0.2298006758670823</v>
       </c>
       <c r="D16">
-        <v>0.1726569716772772</v>
+        <v>0.1303143947133805</v>
       </c>
       <c r="E16">
-        <v>0.06515235290805066</v>
+        <v>0.03183049553985562</v>
       </c>
       <c r="F16">
-        <v>3.1024245339392</v>
+        <v>3.636255063828202</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.516219246147884</v>
+        <v>2.600889296321881</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6629870584598336</v>
+        <v>1.383653285892905</v>
       </c>
       <c r="L16">
-        <v>0.2482954237890596</v>
+        <v>0.2479239449166926</v>
       </c>
       <c r="M16">
-        <v>0.223978762960364</v>
+        <v>0.2927946730284035</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7773213036314814</v>
+        <v>1.189079089542645</v>
       </c>
       <c r="C17">
-        <v>0.06525663462836917</v>
+        <v>0.2195506735790929</v>
       </c>
       <c r="D17">
-        <v>0.1723015349195975</v>
+        <v>0.1300553346328144</v>
       </c>
       <c r="E17">
-        <v>0.06512910956836926</v>
+        <v>0.03146851344301815</v>
       </c>
       <c r="F17">
-        <v>3.074931581649309</v>
+        <v>3.528095700043366</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.499116601288492</v>
+        <v>2.535010956468682</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6493050024436968</v>
+        <v>1.321767638996334</v>
       </c>
       <c r="L17">
-        <v>0.2465781592442085</v>
+        <v>0.2394417411864396</v>
       </c>
       <c r="M17">
-        <v>0.2215677439115709</v>
+        <v>0.2807151886165897</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7711049577074505</v>
+        <v>1.158063143320874</v>
       </c>
       <c r="C18">
-        <v>0.06365765834252102</v>
+        <v>0.2136939786710457</v>
       </c>
       <c r="D18">
-        <v>0.1720954534197894</v>
+        <v>0.129906563897471</v>
       </c>
       <c r="E18">
-        <v>0.06511707319761229</v>
+        <v>0.03126332636075801</v>
       </c>
       <c r="F18">
-        <v>3.059203256364697</v>
+        <v>3.466421591909381</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.489334309342482</v>
+        <v>2.49746116009409</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6414811089141779</v>
+        <v>1.286419531829239</v>
       </c>
       <c r="L18">
-        <v>0.245601385379203</v>
+        <v>0.2346049637516643</v>
       </c>
       <c r="M18">
-        <v>0.2201947167987583</v>
+        <v>0.2738205106241267</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.769009798357672</v>
+        <v>1.147598546859996</v>
       </c>
       <c r="C19">
-        <v>0.0631162561025036</v>
+        <v>0.2117173503950056</v>
       </c>
       <c r="D19">
-        <v>0.1720253946719197</v>
+        <v>0.1298562235692735</v>
       </c>
       <c r="E19">
-        <v>0.06511322695397936</v>
+        <v>0.03119436026638489</v>
       </c>
       <c r="F19">
-        <v>3.053892479840783</v>
+        <v>3.445628722658796</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.486031576457606</v>
+        <v>2.484804153579404</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6388399103020674</v>
+        <v>1.274491941327796</v>
       </c>
       <c r="L19">
-        <v>0.245272547581834</v>
+        <v>0.2329742845156346</v>
       </c>
       <c r="M19">
-        <v>0.2197321912809187</v>
+        <v>0.2714948858098793</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7784763641892027</v>
+        <v>1.19483730269414</v>
       </c>
       <c r="C20">
-        <v>0.06555256225841788</v>
+        <v>0.220637707160904</v>
       </c>
       <c r="D20">
-        <v>0.1723395416957914</v>
+        <v>0.1300828856026897</v>
       </c>
       <c r="E20">
-        <v>0.06513144598982912</v>
+        <v>0.03150673228513057</v>
       </c>
       <c r="F20">
-        <v>3.077849463305739</v>
+        <v>3.539553179613762</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.500931543460169</v>
+        <v>2.541987981369104</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6507567534104339</v>
+        <v>1.328329505037402</v>
       </c>
       <c r="L20">
-        <v>0.2467598316074913</v>
+        <v>0.2403402866072923</v>
       </c>
       <c r="M20">
-        <v>0.2218229803320355</v>
+        <v>0.2819954934390339</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8109497494041307</v>
+        <v>1.356333572884978</v>
       </c>
       <c r="C21">
-        <v>0.07373756215200444</v>
+        <v>0.2510978437153426</v>
       </c>
       <c r="D21">
-        <v>0.1733754525602791</v>
+        <v>0.1308479479554236</v>
       </c>
       <c r="E21">
-        <v>0.06520856675289899</v>
+        <v>0.03259315032322974</v>
       </c>
       <c r="F21">
-        <v>3.159357158189493</v>
+        <v>3.861780159183326</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.551647730313789</v>
+        <v>2.738352701942276</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6913416953439366</v>
+        <v>1.512299933006631</v>
       </c>
       <c r="L21">
-        <v>0.2518877352437556</v>
+        <v>0.2656086588601454</v>
       </c>
       <c r="M21">
-        <v>0.2290117427810188</v>
+        <v>0.31793622248113</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8326701364686642</v>
+        <v>1.464223284156816</v>
       </c>
       <c r="C22">
-        <v>0.07908701380317495</v>
+        <v>0.271429281271935</v>
       </c>
       <c r="D22">
-        <v>0.1740380193971731</v>
+        <v>0.1313522790079844</v>
       </c>
       <c r="E22">
-        <v>0.06527079335998387</v>
+        <v>0.03333273222722255</v>
       </c>
       <c r="F22">
-        <v>3.213386810096097</v>
+        <v>4.077918304673176</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.58528327228008</v>
+        <v>2.870207323738782</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7182741672342843</v>
+        <v>1.635152344775804</v>
       </c>
       <c r="L22">
-        <v>0.2553366050600943</v>
+        <v>0.2825536808061031</v>
       </c>
       <c r="M22">
-        <v>0.2338322165361717</v>
+        <v>0.341978070074866</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8210320656962153</v>
+        <v>1.406407866315021</v>
       </c>
       <c r="C23">
-        <v>0.0762318666620132</v>
+        <v>0.2605351705412886</v>
       </c>
       <c r="D23">
-        <v>0.1736857096924282</v>
+        <v>0.1310825975177963</v>
       </c>
       <c r="E23">
-        <v>0.06523650203319242</v>
+        <v>0.03293516156056775</v>
       </c>
       <c r="F23">
-        <v>3.184480479338276</v>
+        <v>3.962014423934733</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.567286431778186</v>
+        <v>2.799487519615553</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7038624189371774</v>
+        <v>1.569322620951738</v>
       </c>
       <c r="L23">
-        <v>0.2534869595049827</v>
+        <v>0.273467461027451</v>
       </c>
       <c r="M23">
-        <v>0.2312482590411236</v>
+        <v>0.3290918332981576</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7779539962556044</v>
+        <v>1.192233367060027</v>
       </c>
       <c r="C24">
-        <v>0.06541877587562794</v>
+        <v>0.2201461474556652</v>
       </c>
       <c r="D24">
-        <v>0.1723223642413174</v>
+        <v>0.130070429314685</v>
       </c>
       <c r="E24">
-        <v>0.06513038556140494</v>
+        <v>0.03148944447630164</v>
       </c>
       <c r="F24">
-        <v>3.076530046893993</v>
+        <v>3.534371678534256</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.500110851613954</v>
+        <v>2.538832662635571</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6501002856703906</v>
+        <v>1.325362171051779</v>
       </c>
       <c r="L24">
-        <v>0.246677664812708</v>
+        <v>0.2399339310053108</v>
       </c>
       <c r="M24">
-        <v>0.2217075471421524</v>
+        <v>0.2814165128053574</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7336215740663476</v>
+        <v>0.9695819175699114</v>
       </c>
       <c r="C25">
-        <v>0.05375173029669611</v>
+        <v>0.1780293112109064</v>
       </c>
       <c r="D25">
-        <v>0.1707888236844504</v>
+        <v>0.1289865440912301</v>
       </c>
       <c r="E25">
-        <v>0.06506689370159613</v>
+        <v>0.03004403348373863</v>
       </c>
       <c r="F25">
-        <v>2.9633310307226</v>
+        <v>3.093236679297235</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.429740502188025</v>
+        <v>2.270515996018702</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5938539922609891</v>
+        <v>1.071457580829247</v>
       </c>
       <c r="L25">
-        <v>0.2397514180240705</v>
+        <v>0.2053403390310677</v>
       </c>
       <c r="M25">
-        <v>0.2119411528004917</v>
+        <v>0.2319851471320291</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8111626163434096</v>
+        <v>2.06632346771886</v>
       </c>
       <c r="C2">
-        <v>0.147899541198143</v>
+        <v>0.478248282502193</v>
       </c>
       <c r="D2">
-        <v>0.1281847269859853</v>
+        <v>0.05045678779557505</v>
       </c>
       <c r="E2">
-        <v>0.02906502333121352</v>
+        <v>0.06611131475038956</v>
       </c>
       <c r="F2">
-        <v>2.782109812933257</v>
+        <v>0.5880589682942912</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.000480078179281973</v>
       </c>
       <c r="I2">
-        <v>2.08173801501836</v>
+        <v>0.0004437814761644177</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0.890483092948557</v>
+        <v>0.3537570605669131</v>
       </c>
       <c r="L2">
-        <v>0.1809548142490911</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1969270715525013</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1836078381373767</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3711055924152973</v>
+      </c>
+      <c r="P2">
+        <v>0.8508037780788271</v>
+      </c>
+      <c r="Q2">
+        <v>1.74512877412559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7065094095357267</v>
+        <v>1.799969486197767</v>
       </c>
       <c r="C3">
-        <v>0.1278713328462828</v>
+        <v>0.4320280081567489</v>
       </c>
       <c r="D3">
-        <v>0.1276343416431835</v>
+        <v>0.04556291591929806</v>
       </c>
       <c r="E3">
-        <v>0.0284490825629673</v>
+        <v>0.06400744625284349</v>
       </c>
       <c r="F3">
-        <v>2.578191394646495</v>
+        <v>0.5446180683549997</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001155867688729328</v>
       </c>
       <c r="I3">
-        <v>1.958288412277199</v>
+        <v>0.0005954603839750661</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0.7707005850062103</v>
+        <v>0.3490798570405467</v>
       </c>
       <c r="L3">
-        <v>0.1649868037689544</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1738378330786396</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1654650207811486</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.324467102742247</v>
+      </c>
+      <c r="P3">
+        <v>0.8658690448529924</v>
+      </c>
+      <c r="Q3">
+        <v>1.64531973414509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6433719965680496</v>
+        <v>1.635826859668896</v>
       </c>
       <c r="C4">
-        <v>0.115720328167825</v>
+        <v>0.4037289897181608</v>
       </c>
       <c r="D4">
-        <v>0.1272915690108469</v>
+        <v>0.04255783455465689</v>
       </c>
       <c r="E4">
-        <v>0.02809267632057821</v>
+        <v>0.06268766520966151</v>
       </c>
       <c r="F4">
-        <v>2.455932305625296</v>
+        <v>0.5184450222579926</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001738078851688307</v>
       </c>
       <c r="I4">
-        <v>1.884409237030482</v>
+        <v>0.0008854084162126519</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0.6983133946469309</v>
+        <v>0.3464500455397648</v>
       </c>
       <c r="L4">
-        <v>0.1554225574303416</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1599427683104011</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1543416348456432</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2957720973272018</v>
+      </c>
+      <c r="P4">
+        <v>0.875784244690287</v>
+      </c>
+      <c r="Q4">
+        <v>1.585504393772595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6178953241198997</v>
+        <v>1.567794720478929</v>
       </c>
       <c r="C5">
-        <v>0.1107992072504373</v>
+        <v>0.3926578139808328</v>
       </c>
       <c r="D5">
-        <v>0.1271504792374074</v>
+        <v>0.04137474304447153</v>
       </c>
       <c r="E5">
-        <v>0.02795268893254832</v>
+        <v>0.06212713723515195</v>
       </c>
       <c r="F5">
-        <v>2.406787493535433</v>
+        <v>0.5074443235276362</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.002017263715430651</v>
       </c>
       <c r="I5">
-        <v>1.854745460046786</v>
+        <v>0.001120198375898163</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0.6690722435993877</v>
+        <v>0.3450842806573213</v>
       </c>
       <c r="L5">
-        <v>0.1515806555291519</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1543446808690554</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1498689262820179</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2839664967566975</v>
+      </c>
+      <c r="P5">
+        <v>0.8802117806996819</v>
+      </c>
+      <c r="Q5">
+        <v>1.559948526401826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6136793641450993</v>
+        <v>1.555280243855208</v>
       </c>
       <c r="C6">
-        <v>0.1099837261693608</v>
+        <v>0.3913673762446592</v>
       </c>
       <c r="D6">
-        <v>0.1271269610124826</v>
+        <v>0.04122966722893295</v>
       </c>
       <c r="E6">
-        <v>0.02792975494421945</v>
+        <v>0.0620151221462697</v>
       </c>
       <c r="F6">
-        <v>2.398666106759322</v>
+        <v>0.5050709232243236</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002068245580536421</v>
       </c>
       <c r="I6">
-        <v>1.849845422765938</v>
+        <v>0.001254307232520624</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0.664231347679916</v>
+        <v>0.3444304306458257</v>
       </c>
       <c r="L6">
-        <v>0.1509459352231346</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1534188197184427</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1491967034855648</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2818875683840361</v>
+      </c>
+      <c r="P6">
+        <v>0.8812330866373799</v>
+      </c>
+      <c r="Q6">
+        <v>1.553856998718885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.643027424818996</v>
+        <v>1.631598232186093</v>
       </c>
       <c r="C7">
-        <v>0.1156538446637825</v>
+        <v>0.4050790867765528</v>
       </c>
       <c r="D7">
-        <v>0.1272896721672083</v>
+        <v>0.04268283717837562</v>
       </c>
       <c r="E7">
-        <v>0.02809076742890326</v>
+        <v>0.06263013883741242</v>
       </c>
       <c r="F7">
-        <v>2.455266863382917</v>
+        <v>0.5167825977132026</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.00174717960886317</v>
       </c>
       <c r="I7">
-        <v>1.88400743995544</v>
+        <v>0.001124831425875605</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0.6979180405262753</v>
+        <v>0.3452559425440782</v>
       </c>
       <c r="L7">
-        <v>0.1553705251451305</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1598670187370956</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1544741261858888</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2952906397376296</v>
+      </c>
+      <c r="P7">
+        <v>0.8766128782912119</v>
+      </c>
+      <c r="Q7">
+        <v>1.580052038999355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7748273922384215</v>
+        <v>1.970175939058095</v>
       </c>
       <c r="C8">
-        <v>0.1409594873038884</v>
+        <v>0.4643001663206121</v>
       </c>
       <c r="D8">
-        <v>0.1279958382910031</v>
+        <v>0.04895828216219655</v>
       </c>
       <c r="E8">
-        <v>0.02884798421386137</v>
+        <v>0.06532719186611358</v>
       </c>
       <c r="F8">
-        <v>2.711146738087237</v>
+        <v>0.57096346736963</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0006814614529334628</v>
       </c>
       <c r="I8">
-        <v>2.038749234128687</v>
+        <v>0.0007353957080864504</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0.8489198614500992</v>
+        <v>0.3505412918732169</v>
       </c>
       <c r="L8">
-        <v>0.1753962065495358</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1889032851876813</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1776064146748766</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.354604842268408</v>
+      </c>
+      <c r="P8">
+        <v>0.8569416574386466</v>
+      </c>
+      <c r="Q8">
+        <v>1.70362991685721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.043620411784417</v>
+        <v>2.635636760248417</v>
       </c>
       <c r="C9">
-        <v>0.1920569037521886</v>
+        <v>0.5786086587631303</v>
       </c>
       <c r="D9">
-        <v>0.1293515756955372</v>
+        <v>0.06102368158343552</v>
       </c>
       <c r="E9">
-        <v>0.03051687875205999</v>
+        <v>0.07050475865681305</v>
       </c>
       <c r="F9">
-        <v>3.239480837221436</v>
+        <v>0.6842837180451156</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.163628325423943E-06</v>
       </c>
       <c r="I9">
-        <v>2.359393216692368</v>
+        <v>0.001292334716473498</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>1.155934436377635</v>
+        <v>0.3650466363630009</v>
       </c>
       <c r="L9">
-        <v>0.2168076477482117</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2484047972235608</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2228129103939693</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4711069811841497</v>
+      </c>
+      <c r="P9">
+        <v>0.8223654287254192</v>
+      </c>
+      <c r="Q9">
+        <v>1.96782256528806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.249620517162725</v>
+        <v>3.109263312126188</v>
       </c>
       <c r="C10">
-        <v>0.2309757862671944</v>
+        <v>0.6691246161861102</v>
       </c>
       <c r="D10">
-        <v>0.1303439941723887</v>
+        <v>0.07073556767074507</v>
       </c>
       <c r="E10">
-        <v>0.03187221753192304</v>
+        <v>0.07352542109519233</v>
       </c>
       <c r="F10">
-        <v>3.648671953760044</v>
+        <v>0.7625309648266665</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0006446019741432885</v>
       </c>
       <c r="I10">
-        <v>2.608454312146918</v>
+        <v>0.002963500414972842</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>1.390749672401455</v>
+        <v>0.3714811882671789</v>
       </c>
       <c r="L10">
-        <v>0.2488976937114273</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2941804811015842</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2446249595214027</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.5476158204501189</v>
+      </c>
+      <c r="P10">
+        <v>0.8058811374296582</v>
+      </c>
+      <c r="Q10">
+        <v>2.143644403747658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.345738149208984</v>
+        <v>3.21946499710117</v>
       </c>
       <c r="C11">
-        <v>0.249100649024939</v>
+        <v>0.7574648760390232</v>
       </c>
       <c r="D11">
-        <v>0.1307981581127322</v>
+        <v>0.08224582355198606</v>
       </c>
       <c r="E11">
-        <v>0.03252107419368855</v>
+        <v>0.07456882944596543</v>
       </c>
       <c r="F11">
-        <v>3.840589805070522</v>
+        <v>0.7318824521665448</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01919088806764435</v>
       </c>
       <c r="I11">
-        <v>2.725431277793149</v>
+        <v>0.004017221698333628</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>1.500233269939741</v>
+        <v>0.3304960949683924</v>
       </c>
       <c r="L11">
-        <v>0.263947139261191</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.315576419069771</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1649017946122626</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5068893859222499</v>
+      </c>
+      <c r="P11">
+        <v>0.8490304037427023</v>
+      </c>
+      <c r="Q11">
+        <v>2.003041579740767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.382532952720652</v>
+        <v>3.216175186515386</v>
       </c>
       <c r="C12">
-        <v>0.2560358248685191</v>
+        <v>0.8133337680414172</v>
       </c>
       <c r="D12">
-        <v>0.1309708510826084</v>
+        <v>0.09020285154093699</v>
       </c>
       <c r="E12">
-        <v>0.0327718150687577</v>
+        <v>0.08236117595867398</v>
       </c>
       <c r="F12">
-        <v>3.914205838194249</v>
+        <v>0.6917779529955368</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05777816806755709</v>
       </c>
       <c r="I12">
-        <v>2.770325272986071</v>
+        <v>0.004117544705485976</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>1.542135710176268</v>
+        <v>0.2980499805079084</v>
       </c>
       <c r="L12">
-        <v>0.2697191655463911</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3237723223340225</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1086048621195133</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4585192499494894</v>
+      </c>
+      <c r="P12">
+        <v>0.894973822105058</v>
+      </c>
+      <c r="Q12">
+        <v>1.857021832388654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.374589999966076</v>
+        <v>3.120074552768699</v>
       </c>
       <c r="C13">
-        <v>0.2545388302554699</v>
+        <v>0.8492200687130946</v>
       </c>
       <c r="D13">
-        <v>0.130933621456677</v>
+        <v>0.09602348373506686</v>
       </c>
       <c r="E13">
-        <v>0.03271758310197725</v>
+        <v>0.09544720104456239</v>
       </c>
       <c r="F13">
-        <v>3.898307577824056</v>
+        <v>0.6395810972958884</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1133771322676864</v>
       </c>
       <c r="I13">
-        <v>2.760628813342009</v>
+        <v>0.003796084375082387</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>1.533090522857407</v>
+        <v>0.2683955854052265</v>
       </c>
       <c r="L13">
-        <v>0.2684726643716857</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3220028246100028</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06746320426414698</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.4013087913085513</v>
+      </c>
+      <c r="P13">
+        <v>0.9457787982354517</v>
+      </c>
+      <c r="Q13">
+        <v>1.690115782878195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.34875700902586</v>
+        <v>3.010142380924549</v>
       </c>
       <c r="C14">
-        <v>0.2496697046901346</v>
+        <v>0.8658937920498033</v>
       </c>
       <c r="D14">
-        <v>0.1308123494555531</v>
+        <v>0.09919850639779071</v>
       </c>
       <c r="E14">
-        <v>0.03254159956950176</v>
+        <v>0.1078418298810107</v>
       </c>
       <c r="F14">
-        <v>3.846626709206134</v>
+        <v>0.5975040054384522</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1626042847831997</v>
       </c>
       <c r="I14">
-        <v>2.729112344244243</v>
+        <v>0.003476945418380062</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>1.503671355221371</v>
+        <v>0.2490193160678871</v>
       </c>
       <c r="L14">
-        <v>0.2644204917624933</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3162487528354418</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04783828438720583</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3578070462437424</v>
+      </c>
+      <c r="P14">
+        <v>0.9843240975178844</v>
+      </c>
+      <c r="Q14">
+        <v>1.563833430447687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.332986881735991</v>
+        <v>2.962630973272269</v>
       </c>
       <c r="C15">
-        <v>0.2466969145109061</v>
+        <v>0.8659775994370875</v>
       </c>
       <c r="D15">
-        <v>0.1307381695600327</v>
+        <v>0.09950701019806729</v>
       </c>
       <c r="E15">
-        <v>0.03243447217813689</v>
+        <v>0.1110001700975971</v>
       </c>
       <c r="F15">
-        <v>3.815096694267112</v>
+        <v>0.5842309446679153</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1750620963561005</v>
       </c>
       <c r="I15">
-        <v>2.709887543833062</v>
+        <v>0.003423040668505628</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>1.485710902292567</v>
+        <v>0.2443863880440915</v>
       </c>
       <c r="L15">
-        <v>0.2619482001794324</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3127367830867556</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04426260572904361</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.3451203592429621</v>
+      </c>
+      <c r="P15">
+        <v>0.9942076037780225</v>
+      </c>
+      <c r="Q15">
+        <v>1.526921678295224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.243391680300476</v>
+        <v>2.778429142905338</v>
       </c>
       <c r="C16">
-        <v>0.2298006758670823</v>
+        <v>0.8190889808609541</v>
       </c>
       <c r="D16">
-        <v>0.1303143947133805</v>
+        <v>0.09400170727946033</v>
       </c>
       <c r="E16">
-        <v>0.03183049553985562</v>
+        <v>0.1064974609981988</v>
       </c>
       <c r="F16">
-        <v>3.636255063828202</v>
+        <v>0.5605498004769274</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1620792186799633</v>
       </c>
       <c r="I16">
-        <v>2.600889296321881</v>
+        <v>0.002822047837856445</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>1.383653285892905</v>
+        <v>0.2470798323277137</v>
       </c>
       <c r="L16">
-        <v>0.2479239449166926</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2927946730284035</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04443259934124733</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3253207228246353</v>
+      </c>
+      <c r="P16">
+        <v>0.9877444111051261</v>
+      </c>
+      <c r="Q16">
+        <v>1.483249038809674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.189079089542645</v>
+        <v>2.695382143559414</v>
       </c>
       <c r="C17">
-        <v>0.2195506735790929</v>
+        <v>0.7744353690708294</v>
       </c>
       <c r="D17">
-        <v>0.1300553346328144</v>
+        <v>0.08810383207516992</v>
       </c>
       <c r="E17">
-        <v>0.03146851344301815</v>
+        <v>0.09590657697948046</v>
       </c>
       <c r="F17">
-        <v>3.528095700043366</v>
+        <v>0.564689060380438</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1241877855563729</v>
       </c>
       <c r="I17">
-        <v>2.535010956468682</v>
+        <v>0.002574005307329763</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>1.321767638996334</v>
+        <v>0.2592449669008765</v>
       </c>
       <c r="L17">
-        <v>0.2394417411864396</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2807151886165897</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05340316075649554</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3327835838925992</v>
+      </c>
+      <c r="P17">
+        <v>0.9625091620954862</v>
+      </c>
+      <c r="Q17">
+        <v>1.51642410993648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.158063143320874</v>
+        <v>2.692077830534288</v>
       </c>
       <c r="C18">
-        <v>0.2136939786710457</v>
+        <v>0.7261697629660944</v>
       </c>
       <c r="D18">
-        <v>0.129906563897471</v>
+        <v>0.08125572984168627</v>
       </c>
       <c r="E18">
-        <v>0.03126332636075801</v>
+        <v>0.08234837174871501</v>
       </c>
       <c r="F18">
-        <v>3.466421591909381</v>
+        <v>0.5944623714034805</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0713428060798762</v>
       </c>
       <c r="I18">
-        <v>2.49746116009409</v>
+        <v>0.002275917470339728</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>1.286419531829239</v>
+        <v>0.2826187185557387</v>
       </c>
       <c r="L18">
-        <v>0.2346049637516643</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2738205106241267</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0788284619188957</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3658716399815916</v>
+      </c>
+      <c r="P18">
+        <v>0.9202422051051542</v>
+      </c>
+      <c r="Q18">
+        <v>1.624568012688115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.147598546859996</v>
+        <v>2.746573831316141</v>
       </c>
       <c r="C19">
-        <v>0.2117173503950056</v>
+        <v>0.6834354769030426</v>
       </c>
       <c r="D19">
-        <v>0.1298562235692735</v>
+        <v>0.07475712571715576</v>
       </c>
       <c r="E19">
-        <v>0.03119436026638489</v>
+        <v>0.07263985738488721</v>
       </c>
       <c r="F19">
-        <v>3.445628722658796</v>
+        <v>0.6407374693621009</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02616099940426864</v>
       </c>
       <c r="I19">
-        <v>2.484804153579404</v>
+        <v>0.002467119859050904</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>1.274491941327796</v>
+        <v>0.3132235029545285</v>
       </c>
       <c r="L19">
-        <v>0.2329742845156346</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2714948858098793</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1277706285430185</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4186189684774959</v>
+      </c>
+      <c r="P19">
+        <v>0.874576305311102</v>
+      </c>
+      <c r="Q19">
+        <v>1.780286429669559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.19483730269414</v>
+        <v>2.973932140490717</v>
       </c>
       <c r="C20">
-        <v>0.220637707160904</v>
+        <v>0.6503623929017976</v>
       </c>
       <c r="D20">
-        <v>0.1300828856026897</v>
+        <v>0.06867332591279052</v>
       </c>
       <c r="E20">
-        <v>0.03150673228513057</v>
+        <v>0.07256548034722754</v>
       </c>
       <c r="F20">
-        <v>3.539553179613762</v>
+        <v>0.7366926110854166</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0003843149049442829</v>
       </c>
       <c r="I20">
-        <v>2.541987981369104</v>
+        <v>0.003159928839892245</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>1.328329505037402</v>
+        <v>0.3658761057259596</v>
       </c>
       <c r="L20">
-        <v>0.2403402866072923</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2819954934390339</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2390026948788062</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.5261446230625211</v>
+      </c>
+      <c r="P20">
+        <v>0.8130533287841004</v>
+      </c>
+      <c r="Q20">
+        <v>2.079837407237335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.356333572884978</v>
+        <v>3.356395065505467</v>
       </c>
       <c r="C21">
-        <v>0.2510978437153426</v>
+        <v>0.7117498895938468</v>
       </c>
       <c r="D21">
-        <v>0.1308479479554236</v>
+        <v>0.07490564563003943</v>
       </c>
       <c r="E21">
-        <v>0.03259315032322974</v>
+        <v>0.07594941051348769</v>
       </c>
       <c r="F21">
-        <v>3.861780159183326</v>
+        <v>0.8104963909835305</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001037120437946459</v>
       </c>
       <c r="I21">
-        <v>2.738352701942276</v>
+        <v>0.004761729603494302</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>1.512299933006631</v>
+        <v>0.3799412253393655</v>
       </c>
       <c r="L21">
-        <v>0.2656086588601454</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.31793622248113</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2738372342724773</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.5986222617135724</v>
+      </c>
+      <c r="P21">
+        <v>0.7937110971329773</v>
+      </c>
+      <c r="Q21">
+        <v>2.260273331483887</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.464223284156816</v>
+        <v>3.604833596896185</v>
       </c>
       <c r="C22">
-        <v>0.271429281271935</v>
+        <v>0.7525939277889222</v>
       </c>
       <c r="D22">
-        <v>0.1313522790079844</v>
+        <v>0.07917763279374412</v>
       </c>
       <c r="E22">
-        <v>0.03333273222722255</v>
+        <v>0.07787028015084774</v>
       </c>
       <c r="F22">
-        <v>4.077918304673176</v>
+        <v>0.8576875288734271</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001750094509080147</v>
       </c>
       <c r="I22">
-        <v>2.870207323738782</v>
+        <v>0.005774256564630598</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>1.635152344775804</v>
+        <v>0.388381511094174</v>
       </c>
       <c r="L22">
-        <v>0.2825536808061031</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.341978070074866</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2904362073272608</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.6419779961831509</v>
+      </c>
+      <c r="P22">
+        <v>0.7830259136730717</v>
+      </c>
+      <c r="Q22">
+        <v>2.374329883782707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.406407866315021</v>
+        <v>3.476320671847361</v>
       </c>
       <c r="C23">
-        <v>0.2605351705412886</v>
+        <v>0.7289097116917276</v>
       </c>
       <c r="D23">
-        <v>0.1310825975177963</v>
+        <v>0.07672087831026886</v>
       </c>
       <c r="E23">
-        <v>0.03293516156056775</v>
+        <v>0.07689780907835519</v>
       </c>
       <c r="F23">
-        <v>3.962014423934733</v>
+        <v>0.8342265118363343</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001352309104981853</v>
       </c>
       <c r="I23">
-        <v>2.799487519615553</v>
+        <v>0.004934704942302304</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>1.569322620951738</v>
+        <v>0.3852120087905391</v>
       </c>
       <c r="L23">
-        <v>0.273467461027451</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3290918332981576</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2813313154962458</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.6192328258313111</v>
+      </c>
+      <c r="P23">
+        <v>0.7875231989176683</v>
+      </c>
+      <c r="Q23">
+        <v>2.31928317078399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.192233367060027</v>
+        <v>2.982794560856121</v>
       </c>
       <c r="C24">
-        <v>0.2201461474556652</v>
+        <v>0.6426970805408985</v>
       </c>
       <c r="D24">
-        <v>0.130070429314685</v>
+        <v>0.06771837090580135</v>
       </c>
       <c r="E24">
-        <v>0.03148944447630164</v>
+        <v>0.07312902537025856</v>
       </c>
       <c r="F24">
-        <v>3.534371678534256</v>
+        <v>0.7441657653358078</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0002927704147859256</v>
       </c>
       <c r="I24">
-        <v>2.538832662635571</v>
+        <v>0.002711477560632503</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>1.325362171051779</v>
+        <v>0.3717502809143376</v>
       </c>
       <c r="L24">
-        <v>0.2399339310053108</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2814165128053574</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2473621154756813</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.5325038128115125</v>
+      </c>
+      <c r="P24">
+        <v>0.8078835808722218</v>
+      </c>
+      <c r="Q24">
+        <v>2.105960274824014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9695819175699114</v>
+        <v>2.449920401607073</v>
       </c>
       <c r="C25">
-        <v>0.1780293112109064</v>
+        <v>0.5503395991430011</v>
       </c>
       <c r="D25">
-        <v>0.1289865440912301</v>
+        <v>0.05801829856275731</v>
       </c>
       <c r="E25">
-        <v>0.03004403348373863</v>
+        <v>0.06903710598352664</v>
       </c>
       <c r="F25">
-        <v>3.093236679297235</v>
+        <v>0.6503530601388263</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.494338707981214E-05</v>
       </c>
       <c r="I25">
-        <v>2.270515996018702</v>
+        <v>0.001344431379271427</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>1.071457580829247</v>
+        <v>0.3587773762698454</v>
       </c>
       <c r="L25">
-        <v>0.2053403390310677</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2319851471320291</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.210911662720136</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.4390246772280832</v>
+      </c>
+      <c r="P25">
+        <v>0.8326955173483412</v>
+      </c>
+      <c r="Q25">
+        <v>1.885584092405111</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.06632346771886</v>
+        <v>1.999558209495035</v>
       </c>
       <c r="C2">
-        <v>0.478248282502193</v>
+        <v>0.5009279619809774</v>
       </c>
       <c r="D2">
-        <v>0.05045678779557505</v>
+        <v>0.05271649602165951</v>
       </c>
       <c r="E2">
-        <v>0.06611131475038956</v>
+        <v>0.06526920820584325</v>
       </c>
       <c r="F2">
-        <v>0.5880589682942912</v>
+        <v>0.5504344664412741</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.000480078179281973</v>
+        <v>0.0003110329871331974</v>
       </c>
       <c r="I2">
-        <v>0.0004437814761644177</v>
+        <v>0.0005738090224260972</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.3537570605669131</v>
+        <v>0.3186732479952106</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1670639755343295</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.08153628667181856</v>
       </c>
       <c r="N2">
-        <v>0.1836078381373767</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3711055924152973</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8508037780788271</v>
+        <v>0.1916746744371522</v>
       </c>
       <c r="Q2">
-        <v>1.74512877412559</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3643927297473155</v>
+      </c>
+      <c r="R2">
+        <v>0.8538581178230231</v>
+      </c>
+      <c r="S2">
+        <v>1.612876305844168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.799969486197767</v>
+        <v>1.747007843767562</v>
       </c>
       <c r="C3">
-        <v>0.4320280081567489</v>
+        <v>0.447071722039027</v>
       </c>
       <c r="D3">
-        <v>0.04556291591929806</v>
+        <v>0.047112272277964</v>
       </c>
       <c r="E3">
-        <v>0.06400744625284349</v>
+        <v>0.06333938335672151</v>
       </c>
       <c r="F3">
-        <v>0.5446180683549997</v>
+        <v>0.5121378831935104</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.001155867688729328</v>
+        <v>0.0008399057729630011</v>
       </c>
       <c r="I3">
-        <v>0.0005954603839750661</v>
+        <v>0.0005334515550781127</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.3490798570405467</v>
+        <v>0.317092571606274</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1709830249403055</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.07761188488149351</v>
       </c>
       <c r="N3">
-        <v>0.1654650207811486</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.324467102742247</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8658690448529924</v>
+        <v>0.1730164578809692</v>
       </c>
       <c r="Q3">
-        <v>1.64531973414509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3190616807345421</v>
+      </c>
+      <c r="R3">
+        <v>0.8625305646814851</v>
+      </c>
+      <c r="S3">
+        <v>1.529620748567083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.635826859668896</v>
+        <v>1.591073377398288</v>
       </c>
       <c r="C4">
-        <v>0.4037289897181608</v>
+        <v>0.4142096813472733</v>
       </c>
       <c r="D4">
-        <v>0.04255783455465689</v>
+        <v>0.04368255101015706</v>
       </c>
       <c r="E4">
-        <v>0.06268766520966151</v>
+        <v>0.06212771576079157</v>
       </c>
       <c r="F4">
-        <v>0.5184450222579926</v>
+        <v>0.4890029175648678</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.001738078851688307</v>
+        <v>0.001310708401693561</v>
       </c>
       <c r="I4">
-        <v>0.0008854084162126519</v>
+        <v>0.0006767785625019229</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.3464500455397648</v>
+        <v>0.3162822208852809</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1734339140255692</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0757870369030087</v>
       </c>
       <c r="N4">
-        <v>0.1543416348456432</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2957720973272018</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.875784244690287</v>
+        <v>0.1615928426194699</v>
       </c>
       <c r="Q4">
-        <v>1.585504393772595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2911401397820086</v>
+      </c>
+      <c r="R4">
+        <v>0.8686113764477454</v>
+      </c>
+      <c r="S4">
+        <v>1.479577685955775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.567794720478929</v>
+        <v>1.526337390812699</v>
       </c>
       <c r="C5">
-        <v>0.3926578139808328</v>
+        <v>0.4013341189059361</v>
       </c>
       <c r="D5">
-        <v>0.04137474304447153</v>
+        <v>0.04233111985307403</v>
       </c>
       <c r="E5">
-        <v>0.06212713723515195</v>
+        <v>0.06161287227575363</v>
       </c>
       <c r="F5">
-        <v>0.5074443235276362</v>
+        <v>0.4792244828296361</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.002017263715430651</v>
+        <v>0.001539158978538846</v>
       </c>
       <c r="I5">
-        <v>0.001120198375898163</v>
+        <v>0.0008569926929302696</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.3450842806573213</v>
+        <v>0.3156614948009135</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1742799241339625</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.07510432327917549</v>
       </c>
       <c r="N5">
-        <v>0.1498689262820179</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2839664967566975</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8802117806996819</v>
+        <v>0.1570026168362375</v>
       </c>
       <c r="Q5">
-        <v>1.559948526401826</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2796436549697532</v>
+      </c>
+      <c r="R5">
+        <v>0.8715347837039431</v>
+      </c>
+      <c r="S5">
+        <v>1.457965511731857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.555280243855208</v>
+        <v>1.514386415640132</v>
       </c>
       <c r="C6">
-        <v>0.3913673762446592</v>
+        <v>0.3997755868216188</v>
       </c>
       <c r="D6">
-        <v>0.04122966722893295</v>
+        <v>0.04216054188327689</v>
       </c>
       <c r="E6">
-        <v>0.0620151221462697</v>
+        <v>0.06151003453965465</v>
       </c>
       <c r="F6">
-        <v>0.5050709232243236</v>
+        <v>0.477069006249863</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.002068245580536421</v>
+        <v>0.001581102783019483</v>
       </c>
       <c r="I6">
-        <v>0.001254307232520624</v>
+        <v>0.0009978502228200625</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.3444304306458257</v>
+        <v>0.3151592736693054</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1742215770279216</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.07489558491586479</v>
       </c>
       <c r="N6">
-        <v>0.1491967034855648</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2818875683840361</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8812330866373799</v>
+        <v>0.1563119304957112</v>
       </c>
       <c r="Q6">
-        <v>1.553856998718885</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2776168176931506</v>
+      </c>
+      <c r="R6">
+        <v>0.8723515015182244</v>
+      </c>
+      <c r="S6">
+        <v>1.452593261010463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.631598232186093</v>
+        <v>1.586946856036036</v>
       </c>
       <c r="C7">
-        <v>0.4050790867765528</v>
+        <v>0.4156198141081688</v>
       </c>
       <c r="D7">
-        <v>0.04268283717837562</v>
+        <v>0.04381176684933763</v>
       </c>
       <c r="E7">
-        <v>0.06263013883741242</v>
+        <v>0.06207530396630623</v>
       </c>
       <c r="F7">
-        <v>0.5167825977132026</v>
+        <v>0.4874047460011255</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.00174717960886317</v>
+        <v>0.001318341398260037</v>
       </c>
       <c r="I7">
-        <v>0.001124831425875605</v>
+        <v>0.0009573524856980598</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.3452559425440782</v>
+        <v>0.3151812108207146</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.172916016775158</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.07548005973948868</v>
       </c>
       <c r="N7">
-        <v>0.1544741261858888</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.2952906397376296</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8766128782912119</v>
+        <v>0.161726057564735</v>
       </c>
       <c r="Q7">
-        <v>1.580052038999355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2906662596774225</v>
+      </c>
+      <c r="R7">
+        <v>0.8695444399146623</v>
+      </c>
+      <c r="S7">
+        <v>1.474378785257613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.970175939058095</v>
+        <v>1.908314312364723</v>
       </c>
       <c r="C8">
-        <v>0.4643001663206121</v>
+        <v>0.484446443045357</v>
       </c>
       <c r="D8">
-        <v>0.04895828216219655</v>
+        <v>0.05098032831487842</v>
       </c>
       <c r="E8">
-        <v>0.06532719186611358</v>
+        <v>0.06455170556684209</v>
       </c>
       <c r="F8">
-        <v>0.57096346736963</v>
+        <v>0.5352097355839476</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0006814614529334628</v>
+        <v>0.0004654999617788036</v>
       </c>
       <c r="I8">
-        <v>0.0007353957080864504</v>
+        <v>0.0008581767616826497</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.3505412918732169</v>
+        <v>0.3166664788093563</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1677705405078669</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.07961645996008748</v>
       </c>
       <c r="N8">
-        <v>0.1776064146748766</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.354604842268408</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8569416574386466</v>
+        <v>0.1854959771420326</v>
       </c>
       <c r="Q8">
-        <v>1.70362991685721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3483542651871758</v>
+      </c>
+      <c r="R8">
+        <v>0.8579592262556588</v>
+      </c>
+      <c r="S8">
+        <v>1.577467439864677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.635636760248417</v>
+        <v>2.537676211804524</v>
       </c>
       <c r="C9">
-        <v>0.5786086587631303</v>
+        <v>0.6184408432373516</v>
       </c>
       <c r="D9">
-        <v>0.06102368158343552</v>
+        <v>0.06487725098890706</v>
       </c>
       <c r="E9">
-        <v>0.07050475865681305</v>
+        <v>0.06929505288642024</v>
       </c>
       <c r="F9">
-        <v>0.6842837180451156</v>
+        <v>0.6349245515260122</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.163628325423943E-06</v>
+        <v>2.942182912768487E-05</v>
       </c>
       <c r="I9">
-        <v>0.001292334716473498</v>
+        <v>0.001669485630539924</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.3650466363630009</v>
+        <v>0.3228733550820557</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1588779434909782</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.09305070251469516</v>
       </c>
       <c r="N9">
-        <v>0.2228129103939693</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.4711069811841497</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8223654287254192</v>
+        <v>0.2320713346863386</v>
       </c>
       <c r="Q9">
-        <v>1.96782256528806</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4614115728735158</v>
+      </c>
+      <c r="R9">
+        <v>0.839702891948626</v>
+      </c>
+      <c r="S9">
+        <v>1.797815042220407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.109263312126188</v>
+        <v>2.984961894305968</v>
       </c>
       <c r="C10">
-        <v>0.6691246161861102</v>
+        <v>0.7238272414475659</v>
       </c>
       <c r="D10">
-        <v>0.07073556767074507</v>
+        <v>0.07598091508496907</v>
       </c>
       <c r="E10">
-        <v>0.07352542109519233</v>
+        <v>0.07219156321663078</v>
       </c>
       <c r="F10">
-        <v>0.7625309648266665</v>
+        <v>0.7034494958049891</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0006446019741432885</v>
+        <v>0.0007121824190692294</v>
       </c>
       <c r="I10">
-        <v>0.002963500414972842</v>
+        <v>0.003376145264435415</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.3714811882671789</v>
+        <v>0.3237608957601488</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1509294034940893</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1040014478597939</v>
       </c>
       <c r="N10">
-        <v>0.2446249595214027</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5476158204501189</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8058811374296582</v>
+        <v>0.2546337755964885</v>
       </c>
       <c r="Q10">
-        <v>2.143644403747658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5354518298709507</v>
+      </c>
+      <c r="R10">
+        <v>0.8361506987283605</v>
+      </c>
+      <c r="S10">
+        <v>1.942714641896174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.21946499710117</v>
+        <v>3.097506783937263</v>
       </c>
       <c r="C11">
-        <v>0.7574648760390232</v>
+        <v>0.8161382790060259</v>
       </c>
       <c r="D11">
-        <v>0.08224582355198606</v>
+        <v>0.08795006883801904</v>
       </c>
       <c r="E11">
-        <v>0.07456882944596543</v>
+        <v>0.07474921256629674</v>
       </c>
       <c r="F11">
-        <v>0.7318824521665448</v>
+        <v>0.6762863194344817</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01919088806764435</v>
+        <v>0.01924367057499765</v>
       </c>
       <c r="I11">
-        <v>0.004017221698333628</v>
+        <v>0.004513219251668588</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.3304960949683924</v>
+        <v>0.2883119183954435</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1350971657863056</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.09452797461805673</v>
       </c>
       <c r="N11">
-        <v>0.1649017946122626</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.5068893859222499</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8490304037427023</v>
+        <v>0.1725501417872266</v>
       </c>
       <c r="Q11">
-        <v>2.003041579740767</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4955974875912048</v>
+      </c>
+      <c r="R11">
+        <v>0.8884976245589655</v>
+      </c>
+      <c r="S11">
+        <v>1.816733335464875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.216175186515386</v>
+        <v>3.101940111633439</v>
       </c>
       <c r="C12">
-        <v>0.8133337680414172</v>
+        <v>0.8714789030742622</v>
       </c>
       <c r="D12">
-        <v>0.09020285154093699</v>
+        <v>0.09592401653949878</v>
       </c>
       <c r="E12">
-        <v>0.08236117595867398</v>
+        <v>0.08368643342056359</v>
       </c>
       <c r="F12">
-        <v>0.6917779529955368</v>
+        <v>0.6410445428509348</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05777816806755709</v>
+        <v>0.05782514211417578</v>
       </c>
       <c r="I12">
-        <v>0.004117544705485976</v>
+        <v>0.004612092438303961</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.2980499805079084</v>
+        <v>0.2612801357159036</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1248375903229881</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.08497120383371737</v>
       </c>
       <c r="N12">
-        <v>0.1086048621195133</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4585192499494894</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.894973822105058</v>
+        <v>0.1142631501896929</v>
       </c>
       <c r="Q12">
-        <v>1.857021832388654</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4484442145707419</v>
+      </c>
+      <c r="R12">
+        <v>0.9382788680052698</v>
+      </c>
+      <c r="S12">
+        <v>1.688814158657578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.120074552768699</v>
+        <v>3.018237146719969</v>
       </c>
       <c r="C13">
-        <v>0.8492200687130946</v>
+        <v>0.9034280229795115</v>
       </c>
       <c r="D13">
-        <v>0.09602348373506686</v>
+        <v>0.1014247094602183</v>
       </c>
       <c r="E13">
-        <v>0.09544720104456239</v>
+        <v>0.09765878166420805</v>
       </c>
       <c r="F13">
-        <v>0.6395810972958884</v>
+        <v>0.5951012757588785</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1133771322676864</v>
+        <v>0.1134215778092056</v>
       </c>
       <c r="I13">
-        <v>0.003796084375082387</v>
+        <v>0.004301648882712783</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.2683955854052265</v>
+        <v>0.2373378622462283</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1171112538421113</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.07441868705994992</v>
       </c>
       <c r="N13">
-        <v>0.06746320426414698</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4013087913085513</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9457787982354517</v>
+        <v>0.0713539776747254</v>
       </c>
       <c r="Q13">
-        <v>1.690115782878195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.392756821764074</v>
+      </c>
+      <c r="R13">
+        <v>0.9891176740434986</v>
+      </c>
+      <c r="S13">
+        <v>1.543919206950733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.010142380924549</v>
+        <v>2.919014596232387</v>
       </c>
       <c r="C14">
-        <v>0.8658937920498033</v>
+        <v>0.9157614323540599</v>
       </c>
       <c r="D14">
-        <v>0.09919850639779071</v>
+        <v>0.1042161958419712</v>
       </c>
       <c r="E14">
-        <v>0.1078418298810107</v>
+        <v>0.1105130995984531</v>
       </c>
       <c r="F14">
-        <v>0.5975040054384522</v>
+        <v>0.5579597167748318</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1626042847831997</v>
+        <v>0.1626458572212783</v>
       </c>
       <c r="I14">
-        <v>0.003476945418380062</v>
+        <v>0.00400685568615966</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.2490193160678871</v>
+        <v>0.2219985380339082</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1126626344271671</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.0667931476290633</v>
       </c>
       <c r="N14">
-        <v>0.04783828438720583</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3578070462437424</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9843240975178844</v>
+        <v>0.05064832270536179</v>
       </c>
       <c r="Q14">
-        <v>1.563833430447687</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3504262213593421</v>
+      </c>
+      <c r="R14">
+        <v>1.025828371173006</v>
+      </c>
+      <c r="S14">
+        <v>1.434527004079655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.962630973272269</v>
+        <v>2.875064076160527</v>
       </c>
       <c r="C15">
-        <v>0.8659775994370875</v>
+        <v>0.9141611801258023</v>
       </c>
       <c r="D15">
-        <v>0.09950701019806729</v>
+        <v>0.1043692292708158</v>
       </c>
       <c r="E15">
-        <v>0.1110001700975971</v>
+        <v>0.1137422728266095</v>
       </c>
       <c r="F15">
-        <v>0.5842309446679153</v>
+        <v>0.5461901754394773</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1750620963561005</v>
+        <v>0.1751013147661098</v>
       </c>
       <c r="I15">
-        <v>0.003423040668505628</v>
+        <v>0.003981726298189159</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.2443863880440915</v>
+        <v>0.2184552715282599</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1118434010074356</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.06465487987556884</v>
       </c>
       <c r="N15">
-        <v>0.04426260572904361</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.3451203592429621</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9942076037780225</v>
+        <v>0.046844719020255</v>
       </c>
       <c r="Q15">
-        <v>1.526921678295224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3380887306574536</v>
+      </c>
+      <c r="R15">
+        <v>1.034602061846115</v>
+      </c>
+      <c r="S15">
+        <v>1.402616631798765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.778429142905338</v>
+        <v>2.699463391608276</v>
       </c>
       <c r="C16">
-        <v>0.8190889808609541</v>
+        <v>0.8614982204736634</v>
       </c>
       <c r="D16">
-        <v>0.09400170727946033</v>
+        <v>0.09830528014242645</v>
       </c>
       <c r="E16">
-        <v>0.1064974609981988</v>
+        <v>0.1089682953116302</v>
       </c>
       <c r="F16">
-        <v>0.5605498004769274</v>
+        <v>0.5252358528804422</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1620792186799633</v>
+        <v>0.1620951272022211</v>
       </c>
       <c r="I16">
-        <v>0.002822047837856445</v>
+        <v>0.003407249927287026</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.2470798323277137</v>
+        <v>0.2220852078184308</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1151119670488772</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.06269269866708882</v>
       </c>
       <c r="N16">
-        <v>0.04443259934124733</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3253207228246353</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9877444111051261</v>
+        <v>0.04719599016296883</v>
       </c>
       <c r="Q16">
-        <v>1.483249038809674</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3189293268199549</v>
+      </c>
+      <c r="R16">
+        <v>1.022165684436033</v>
+      </c>
+      <c r="S16">
+        <v>1.366982611647416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.695382143559414</v>
+        <v>2.617349891765969</v>
       </c>
       <c r="C17">
-        <v>0.7744353690708294</v>
+        <v>0.8148356221861661</v>
       </c>
       <c r="D17">
-        <v>0.08810383207516992</v>
+        <v>0.09219585128941077</v>
       </c>
       <c r="E17">
-        <v>0.09590657697948046</v>
+        <v>0.09797214131806697</v>
       </c>
       <c r="F17">
-        <v>0.564689060380438</v>
+        <v>0.5288975760882906</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1241877855563729</v>
+        <v>0.1241845439235902</v>
       </c>
       <c r="I17">
-        <v>0.002574005307329763</v>
+        <v>0.003165981719954303</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.2592449669008765</v>
+        <v>0.2329291104930604</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1202525879559673</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.06500444428757035</v>
       </c>
       <c r="N17">
-        <v>0.05340316075649554</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3327835838925992</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9625091620954862</v>
+        <v>0.05683019713417892</v>
       </c>
       <c r="Q17">
-        <v>1.51642410993648</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3262904809893286</v>
+      </c>
+      <c r="R17">
+        <v>0.9935279100266285</v>
+      </c>
+      <c r="S17">
+        <v>1.397597600082406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.692077830534288</v>
+        <v>2.60857258124247</v>
       </c>
       <c r="C18">
-        <v>0.7261697629660944</v>
+        <v>0.7672293408013218</v>
       </c>
       <c r="D18">
-        <v>0.08125572984168627</v>
+        <v>0.08537469157861466</v>
       </c>
       <c r="E18">
-        <v>0.08234837174871501</v>
+        <v>0.08376581674614236</v>
       </c>
       <c r="F18">
-        <v>0.5944623714034805</v>
+        <v>0.5553153492099412</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.0713428060798762</v>
+        <v>0.07133632732819706</v>
       </c>
       <c r="I18">
-        <v>0.002275917470339728</v>
+        <v>0.002819306095799945</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>0.2826187185557387</v>
+        <v>0.2526800510939822</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1282840365031248</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.07153796756841757</v>
       </c>
       <c r="N18">
-        <v>0.0788284619188957</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3658716399815916</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9202422051051542</v>
+        <v>0.08350006177337832</v>
       </c>
       <c r="Q18">
-        <v>1.624568012688115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3586040079981316</v>
+      </c>
+      <c r="R18">
+        <v>0.9491169607826038</v>
+      </c>
+      <c r="S18">
+        <v>1.493387886995919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.746573831316141</v>
+        <v>2.652951822623891</v>
       </c>
       <c r="C19">
-        <v>0.6834354769030426</v>
+        <v>0.7270524818473234</v>
       </c>
       <c r="D19">
-        <v>0.07475712571715576</v>
+        <v>0.07906196584043812</v>
       </c>
       <c r="E19">
-        <v>0.07263985738488721</v>
+        <v>0.07312999309826118</v>
       </c>
       <c r="F19">
-        <v>0.6407374693621009</v>
+        <v>0.5961090140128675</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02616099940426864</v>
+        <v>0.02617247272183931</v>
       </c>
       <c r="I19">
-        <v>0.002467119859050904</v>
+        <v>0.003033765585311876</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.0759263476844998</v>
       </c>
       <c r="K19">
-        <v>0.3132235029545285</v>
+        <v>0.2779271218049146</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1379424935052747</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.080878749635243</v>
       </c>
       <c r="N19">
-        <v>0.1277706285430185</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4186189684774959</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.874576305311102</v>
+        <v>0.1342404688277696</v>
       </c>
       <c r="Q19">
-        <v>1.780286429669559</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4100331620620565</v>
+      </c>
+      <c r="R19">
+        <v>0.9020002995026601</v>
+      </c>
+      <c r="S19">
+        <v>1.629458823395993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.973932140490717</v>
+        <v>2.856980559470514</v>
       </c>
       <c r="C20">
-        <v>0.6503623929017976</v>
+        <v>0.7014556420954534</v>
       </c>
       <c r="D20">
-        <v>0.06867332591279052</v>
+        <v>0.07357542252091775</v>
       </c>
       <c r="E20">
-        <v>0.07256548034722754</v>
+        <v>0.07128997671138881</v>
       </c>
       <c r="F20">
-        <v>0.7366926110854166</v>
+        <v>0.6804541399443735</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0003843149049442829</v>
+        <v>0.0004480744265320524</v>
       </c>
       <c r="I20">
-        <v>0.003159928839892245</v>
+        <v>0.003732942552561624</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.3658761057259596</v>
+        <v>0.3200341425832356</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1517273317170407</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.09960468730804095</v>
       </c>
       <c r="N20">
-        <v>0.2390026948788062</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.5261446230625211</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8130533287841004</v>
+        <v>0.2488104812517804</v>
       </c>
       <c r="Q20">
-        <v>2.079837407237335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5146652269074252</v>
+      </c>
+      <c r="R20">
+        <v>0.8404398535316417</v>
+      </c>
+      <c r="S20">
+        <v>1.888171751316321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.356395065505467</v>
+        <v>3.216119632134223</v>
       </c>
       <c r="C21">
-        <v>0.7117498895938468</v>
+        <v>0.7749223693061538</v>
       </c>
       <c r="D21">
-        <v>0.07490564563003943</v>
+        <v>0.08092108673648823</v>
       </c>
       <c r="E21">
-        <v>0.07594941051348769</v>
+        <v>0.07428524055360364</v>
       </c>
       <c r="F21">
-        <v>0.8104963909835305</v>
+        <v>0.7451132558306455</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.001037120437946459</v>
+        <v>0.001094691773905199</v>
       </c>
       <c r="I21">
-        <v>0.004761729603494302</v>
+        <v>0.005264790038450151</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>0.3799412253393655</v>
+        <v>0.3281943346766525</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1483646832422636</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1117187378005013</v>
       </c>
       <c r="N21">
-        <v>0.2738372342724773</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5986222617135724</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7937110971329773</v>
+        <v>0.2847401181239775</v>
       </c>
       <c r="Q21">
-        <v>2.260273331483887</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.584823335520305</v>
+      </c>
+      <c r="R21">
+        <v>0.8304586075434202</v>
+      </c>
+      <c r="S21">
+        <v>2.038851708090078</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.604833596896185</v>
+        <v>3.449700383551715</v>
       </c>
       <c r="C22">
-        <v>0.7525939277889222</v>
+        <v>0.8234700387532428</v>
       </c>
       <c r="D22">
-        <v>0.07917763279374412</v>
+        <v>0.08591052918526287</v>
       </c>
       <c r="E22">
-        <v>0.07787028015084774</v>
+        <v>0.07603705397852178</v>
       </c>
       <c r="F22">
-        <v>0.8576875288734271</v>
+        <v>0.7865500069492128</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.001750094509080147</v>
+        <v>0.001772780282505604</v>
       </c>
       <c r="I22">
-        <v>0.005774256564630598</v>
+        <v>0.006124326191595308</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079829286</v>
       </c>
       <c r="K22">
-        <v>0.388381511094174</v>
+        <v>0.3329918432652867</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1458917822622716</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1199504376339817</v>
       </c>
       <c r="N22">
-        <v>0.2904362073272608</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.6419779961831509</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7830259136730717</v>
+        <v>0.3018948429143791</v>
       </c>
       <c r="Q22">
-        <v>2.374329883782707</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.6267337830869621</v>
+      </c>
+      <c r="R22">
+        <v>0.8259358962132737</v>
+      </c>
+      <c r="S22">
+        <v>2.134279635972518</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.476320671847361</v>
+        <v>3.329040719177954</v>
       </c>
       <c r="C23">
-        <v>0.7289097116917276</v>
+        <v>0.7955181353858336</v>
       </c>
       <c r="D23">
-        <v>0.07672087831026886</v>
+        <v>0.08305870381015978</v>
       </c>
       <c r="E23">
-        <v>0.07689780907835519</v>
+        <v>0.07514665039733348</v>
       </c>
       <c r="F23">
-        <v>0.8342265118363343</v>
+        <v>0.7660901100980766</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.001352309104981853</v>
+        <v>0.001396346937441173</v>
       </c>
       <c r="I23">
-        <v>0.004934704942302304</v>
+        <v>0.005308445965185093</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>0.3852120087905391</v>
+        <v>0.3316312778167898</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1476212973673938</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1160154340225716</v>
       </c>
       <c r="N23">
-        <v>0.2813313154962458</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.6192328258313111</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7875231989176683</v>
+        <v>0.2924876270596144</v>
       </c>
       <c r="Q23">
-        <v>2.31928317078399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.6047570838796119</v>
+      </c>
+      <c r="R23">
+        <v>0.8269229465835011</v>
+      </c>
+      <c r="S23">
+        <v>2.088869216878578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.982794560856121</v>
+        <v>2.864764999397721</v>
       </c>
       <c r="C24">
-        <v>0.6426970805408985</v>
+        <v>0.6936454594912789</v>
       </c>
       <c r="D24">
-        <v>0.06771837090580135</v>
+        <v>0.07260189733683831</v>
       </c>
       <c r="E24">
-        <v>0.07312902537025856</v>
+        <v>0.07170067320027917</v>
       </c>
       <c r="F24">
-        <v>0.7441657653358078</v>
+        <v>0.6872308204521431</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0002927704147859256</v>
+        <v>0.0003590940000930409</v>
       </c>
       <c r="I24">
-        <v>0.002711477560632503</v>
+        <v>0.003185496312834601</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.3717502809143376</v>
+        <v>0.3250607714578813</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1536613569255394</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.101447971011865</v>
       </c>
       <c r="N24">
-        <v>0.2473621154756813</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5325038128115125</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8078835808722218</v>
+        <v>0.2574012600357065</v>
       </c>
       <c r="Q24">
-        <v>2.105960274824014</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5208688813617925</v>
+      </c>
+      <c r="R24">
+        <v>0.8344954813861776</v>
+      </c>
+      <c r="S24">
+        <v>1.911647539668678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.449920401607073</v>
+        <v>2.362118203655939</v>
       </c>
       <c r="C25">
-        <v>0.5503395991430011</v>
+        <v>0.5849254885837638</v>
       </c>
       <c r="D25">
-        <v>0.05801829856275731</v>
+        <v>0.06138091205632179</v>
       </c>
       <c r="E25">
-        <v>0.06903710598352664</v>
+        <v>0.06795504372645844</v>
       </c>
       <c r="F25">
-        <v>0.6503530601388263</v>
+        <v>0.6048997483037226</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.494338707981214E-05</v>
+        <v>3.142232444464099E-06</v>
       </c>
       <c r="I25">
-        <v>0.001344431379271427</v>
+        <v>0.001763680057432992</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.3587773762698454</v>
+        <v>0.3191166536162378</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1604780006255382</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.08821848903436802</v>
       </c>
       <c r="N25">
-        <v>0.210911662720136</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.4390246772280832</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8326955173483412</v>
+        <v>0.2197933766821976</v>
       </c>
       <c r="Q25">
-        <v>1.885584092405111</v>
+        <v>0.43029851562369</v>
+      </c>
+      <c r="R25">
+        <v>0.8458271302104876</v>
+      </c>
+      <c r="S25">
+        <v>1.728270973046676</v>
       </c>
     </row>
   </sheetData>
